--- a/Assets/06.Table/WinterPass.xlsx
+++ b/Assets/06.Table/WinterPass.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01307E3A-8FDA-44DC-96E1-C6FE8CBCC987}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D0A6798-1933-4AC0-AD57-470D490F8CEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="WinterPass" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="32">
   <si>
     <t>Id</t>
   </si>
@@ -137,6 +137,26 @@
   </si>
   <si>
     <t>도술꽃 소탕권</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가을 훈련 소탕권 최종 지급량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내면세계 입장권</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>귀문석 소탕권</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -144,7 +164,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -200,8 +220,16 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -221,6 +249,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -245,7 +279,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -257,12 +291,6 @@
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1">
       <alignment vertical="center"/>
@@ -278,6 +306,18 @@
     </xf>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -598,7 +638,7 @@
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -631,603 +671,603 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="9">
+    <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="7">
         <v>0</v>
       </c>
-      <c r="B2" s="10">
+      <c r="B2" s="8">
         <v>5000000</v>
       </c>
-      <c r="C2" s="7">
-        <v>9009</v>
-      </c>
-      <c r="D2" s="10">
+      <c r="C2" s="5">
+        <v>9044</v>
+      </c>
+      <c r="D2" s="8">
+        <v>1</v>
+      </c>
+      <c r="E2" s="5">
+        <v>9044</v>
+      </c>
+      <c r="F2" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="7">
+        <v>1</v>
+      </c>
+      <c r="B3" s="8">
+        <v>10000000</v>
+      </c>
+      <c r="C3" s="5">
+        <v>9038</v>
+      </c>
+      <c r="D3" s="8">
+        <v>1</v>
+      </c>
+      <c r="E3" s="5">
+        <v>9038</v>
+      </c>
+      <c r="F3" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="7">
+        <v>2</v>
+      </c>
+      <c r="B4" s="8">
+        <v>15000000</v>
+      </c>
+      <c r="C4" s="5">
+        <v>9033</v>
+      </c>
+      <c r="D4" s="8">
+        <v>1</v>
+      </c>
+      <c r="E4" s="5">
+        <v>9033</v>
+      </c>
+      <c r="F4" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="7">
         <v>3</v>
       </c>
-      <c r="E2" s="7">
-        <v>9009</v>
-      </c>
-      <c r="F2" s="10">
+      <c r="B5" s="8">
+        <v>20000000</v>
+      </c>
+      <c r="C5" s="5">
+        <v>9028</v>
+      </c>
+      <c r="D5" s="8">
+        <v>2</v>
+      </c>
+      <c r="E5" s="5">
+        <v>9028</v>
+      </c>
+      <c r="F5" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="7">
+        <v>4</v>
+      </c>
+      <c r="B6" s="8">
+        <v>25000000</v>
+      </c>
+      <c r="C6" s="5">
+        <v>9027</v>
+      </c>
+      <c r="D6" s="8">
+        <v>1</v>
+      </c>
+      <c r="E6" s="5">
+        <v>9027</v>
+      </c>
+      <c r="F6" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="7">
+        <v>5</v>
+      </c>
+      <c r="B7" s="8">
+        <v>30000000</v>
+      </c>
+      <c r="C7" s="5">
+        <v>9017</v>
+      </c>
+      <c r="D7" s="8">
+        <v>1</v>
+      </c>
+      <c r="E7" s="5">
+        <v>9017</v>
+      </c>
+      <c r="F7" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="7">
+        <v>6</v>
+      </c>
+      <c r="B8" s="8">
+        <v>35000000</v>
+      </c>
+      <c r="C8" s="5">
+        <v>9023</v>
+      </c>
+      <c r="D8" s="8">
+        <v>2</v>
+      </c>
+      <c r="E8" s="5">
+        <v>9023</v>
+      </c>
+      <c r="F8" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="7">
+        <v>7</v>
+      </c>
+      <c r="B9" s="8">
+        <v>40000000</v>
+      </c>
+      <c r="C9" s="5">
+        <v>9044</v>
+      </c>
+      <c r="D9" s="8">
+        <v>1</v>
+      </c>
+      <c r="E9" s="5">
+        <v>9044</v>
+      </c>
+      <c r="F9" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="7">
+        <v>8</v>
+      </c>
+      <c r="B10" s="8">
+        <v>45000000</v>
+      </c>
+      <c r="C10" s="5">
+        <v>9038</v>
+      </c>
+      <c r="D10" s="8">
+        <v>1</v>
+      </c>
+      <c r="E10" s="5">
+        <v>9038</v>
+      </c>
+      <c r="F10" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="7">
+        <v>9</v>
+      </c>
+      <c r="B11" s="8">
+        <v>50000000</v>
+      </c>
+      <c r="C11" s="5">
+        <v>9033</v>
+      </c>
+      <c r="D11" s="8">
+        <v>1</v>
+      </c>
+      <c r="E11" s="5">
+        <v>9033</v>
+      </c>
+      <c r="F11" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="7">
+        <v>10</v>
+      </c>
+      <c r="B12" s="8">
+        <v>55000000</v>
+      </c>
+      <c r="C12" s="5">
+        <v>9028</v>
+      </c>
+      <c r="D12" s="8">
+        <v>2</v>
+      </c>
+      <c r="E12" s="5">
+        <v>9028</v>
+      </c>
+      <c r="F12" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="7">
+        <v>11</v>
+      </c>
+      <c r="B13" s="8">
+        <v>60000000</v>
+      </c>
+      <c r="C13" s="5">
+        <v>9027</v>
+      </c>
+      <c r="D13" s="8">
+        <v>1</v>
+      </c>
+      <c r="E13" s="5">
+        <v>9027</v>
+      </c>
+      <c r="F13" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="7">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="9">
-        <v>1</v>
-      </c>
-      <c r="B3" s="10">
-        <v>10000000</v>
-      </c>
-      <c r="C3" s="7">
+      <c r="B14" s="8">
+        <v>65000000</v>
+      </c>
+      <c r="C14" s="5">
+        <v>9017</v>
+      </c>
+      <c r="D14" s="8">
+        <v>1</v>
+      </c>
+      <c r="E14" s="5">
+        <v>9017</v>
+      </c>
+      <c r="F14" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="7">
+        <v>13</v>
+      </c>
+      <c r="B15" s="8">
+        <v>70000000</v>
+      </c>
+      <c r="C15" s="5">
         <v>9023</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D15" s="8">
         <v>2</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E15" s="5">
         <v>9023</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F15" s="8">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="9">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="7">
+        <v>14</v>
+      </c>
+      <c r="B16" s="8">
+        <v>75000000</v>
+      </c>
+      <c r="C16" s="5">
+        <v>9044</v>
+      </c>
+      <c r="D16" s="8">
+        <v>1</v>
+      </c>
+      <c r="E16" s="5">
+        <v>9044</v>
+      </c>
+      <c r="F16" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="7">
+        <v>15</v>
+      </c>
+      <c r="B17" s="8">
+        <v>80000000</v>
+      </c>
+      <c r="C17" s="5">
+        <v>9038</v>
+      </c>
+      <c r="D17" s="8">
+        <v>1</v>
+      </c>
+      <c r="E17" s="5">
+        <v>9038</v>
+      </c>
+      <c r="F17" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="7">
+        <v>16</v>
+      </c>
+      <c r="B18" s="8">
+        <v>85000000</v>
+      </c>
+      <c r="C18" s="5">
+        <v>9033</v>
+      </c>
+      <c r="D18" s="8">
+        <v>1</v>
+      </c>
+      <c r="E18" s="5">
+        <v>9033</v>
+      </c>
+      <c r="F18" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="7">
+        <v>17</v>
+      </c>
+      <c r="B19" s="8">
+        <v>90000000</v>
+      </c>
+      <c r="C19" s="5">
+        <v>9028</v>
+      </c>
+      <c r="D19" s="8">
         <v>2</v>
       </c>
-      <c r="B4" s="10">
-        <v>15000000</v>
-      </c>
-      <c r="C4" s="7">
+      <c r="E19" s="5">
+        <v>9028</v>
+      </c>
+      <c r="F19" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="7">
+        <v>18</v>
+      </c>
+      <c r="B20" s="8">
+        <v>95000000</v>
+      </c>
+      <c r="C20" s="5">
+        <v>9027</v>
+      </c>
+      <c r="D20" s="8">
+        <v>1</v>
+      </c>
+      <c r="E20" s="5">
+        <v>9027</v>
+      </c>
+      <c r="F20" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="7">
+        <v>19</v>
+      </c>
+      <c r="B21" s="8">
+        <v>100000000</v>
+      </c>
+      <c r="C21" s="5">
         <v>9017</v>
       </c>
-      <c r="D4" s="10">
-        <v>1</v>
-      </c>
-      <c r="E4" s="7">
+      <c r="D21" s="8">
+        <v>1</v>
+      </c>
+      <c r="E21" s="5">
         <v>9017</v>
       </c>
-      <c r="F4" s="10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="9">
-        <v>3</v>
-      </c>
-      <c r="B5" s="10">
-        <v>20000000</v>
-      </c>
-      <c r="C5" s="7">
+      <c r="F21" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="7">
+        <v>20</v>
+      </c>
+      <c r="B22" s="8">
+        <v>105000000</v>
+      </c>
+      <c r="C22" s="5">
+        <v>9023</v>
+      </c>
+      <c r="D22" s="8">
+        <v>2</v>
+      </c>
+      <c r="E22" s="5">
+        <v>9023</v>
+      </c>
+      <c r="F22" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="7">
+        <v>21</v>
+      </c>
+      <c r="B23" s="8">
+        <v>110000000</v>
+      </c>
+      <c r="C23" s="5">
+        <v>9044</v>
+      </c>
+      <c r="D23" s="8">
+        <v>1</v>
+      </c>
+      <c r="E23" s="5">
+        <v>9044</v>
+      </c>
+      <c r="F23" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="7">
+        <v>22</v>
+      </c>
+      <c r="B24" s="8">
+        <v>115000000</v>
+      </c>
+      <c r="C24" s="5">
+        <v>9038</v>
+      </c>
+      <c r="D24" s="8">
+        <v>1</v>
+      </c>
+      <c r="E24" s="5">
+        <v>9038</v>
+      </c>
+      <c r="F24" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="7">
+        <v>23</v>
+      </c>
+      <c r="B25" s="8">
+        <v>120000000</v>
+      </c>
+      <c r="C25" s="5">
+        <v>9033</v>
+      </c>
+      <c r="D25" s="8">
+        <v>1</v>
+      </c>
+      <c r="E25" s="5">
+        <v>9033</v>
+      </c>
+      <c r="F25" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="7">
+        <v>24</v>
+      </c>
+      <c r="B26" s="8">
+        <v>125000000</v>
+      </c>
+      <c r="C26" s="5">
+        <v>9028</v>
+      </c>
+      <c r="D26" s="8">
+        <v>2</v>
+      </c>
+      <c r="E26" s="5">
+        <v>9028</v>
+      </c>
+      <c r="F26" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="7">
+        <v>25</v>
+      </c>
+      <c r="B27" s="8">
+        <v>130000000</v>
+      </c>
+      <c r="C27" s="5">
         <v>9027</v>
       </c>
-      <c r="D5" s="10">
-        <v>1</v>
-      </c>
-      <c r="E5" s="7">
+      <c r="D27" s="8">
+        <v>1</v>
+      </c>
+      <c r="E27" s="5">
         <v>9027</v>
       </c>
-      <c r="F5" s="10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="9">
-        <v>4</v>
-      </c>
-      <c r="B6" s="10">
-        <v>25000000</v>
-      </c>
-      <c r="C6" s="7">
-        <v>9028</v>
-      </c>
-      <c r="D6" s="10">
+      <c r="F27" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="7">
+        <v>26</v>
+      </c>
+      <c r="B28" s="8">
+        <v>135000000</v>
+      </c>
+      <c r="C28" s="5">
+        <v>9017</v>
+      </c>
+      <c r="D28" s="8">
+        <v>1</v>
+      </c>
+      <c r="E28" s="5">
+        <v>9017</v>
+      </c>
+      <c r="F28" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="7">
+        <v>27</v>
+      </c>
+      <c r="B29" s="8">
+        <v>140000000</v>
+      </c>
+      <c r="C29" s="5">
+        <v>9023</v>
+      </c>
+      <c r="D29" s="8">
         <v>2</v>
       </c>
-      <c r="E6" s="7">
-        <v>9028</v>
-      </c>
-      <c r="F6" s="10">
+      <c r="E29" s="5">
+        <v>9023</v>
+      </c>
+      <c r="F29" s="8">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="9">
-        <v>5</v>
-      </c>
-      <c r="B7" s="10">
-        <v>30000000</v>
-      </c>
-      <c r="C7" s="7">
-        <v>9033</v>
-      </c>
-      <c r="D7" s="10">
-        <v>1</v>
-      </c>
-      <c r="E7" s="7">
-        <v>9033</v>
-      </c>
-      <c r="F7" s="10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="9">
-        <v>6</v>
-      </c>
-      <c r="B8" s="10">
-        <v>35000000</v>
-      </c>
-      <c r="C8" s="7">
-        <v>9009</v>
-      </c>
-      <c r="D8" s="10">
-        <v>3</v>
-      </c>
-      <c r="E8" s="7">
-        <v>9009</v>
-      </c>
-      <c r="F8" s="10">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="9">
-        <v>7</v>
-      </c>
-      <c r="B9" s="10">
-        <v>40000000</v>
-      </c>
-      <c r="C9" s="7">
-        <v>9023</v>
-      </c>
-      <c r="D9" s="10">
-        <v>2</v>
-      </c>
-      <c r="E9" s="7">
-        <v>9023</v>
-      </c>
-      <c r="F9" s="10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="9">
-        <v>8</v>
-      </c>
-      <c r="B10" s="10">
-        <v>45000000</v>
-      </c>
-      <c r="C10" s="7">
-        <v>9017</v>
-      </c>
-      <c r="D10" s="10">
-        <v>1</v>
-      </c>
-      <c r="E10" s="7">
-        <v>9017</v>
-      </c>
-      <c r="F10" s="10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="9">
-        <v>9</v>
-      </c>
-      <c r="B11" s="10">
-        <v>50000000</v>
-      </c>
-      <c r="C11" s="7">
-        <v>9027</v>
-      </c>
-      <c r="D11" s="10">
-        <v>1</v>
-      </c>
-      <c r="E11" s="7">
-        <v>9027</v>
-      </c>
-      <c r="F11" s="10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="9">
-        <v>10</v>
-      </c>
-      <c r="B12" s="10">
-        <v>55000000</v>
-      </c>
-      <c r="C12" s="7">
-        <v>9028</v>
-      </c>
-      <c r="D12" s="10">
-        <v>2</v>
-      </c>
-      <c r="E12" s="7">
-        <v>9028</v>
-      </c>
-      <c r="F12" s="10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="9">
-        <v>11</v>
-      </c>
-      <c r="B13" s="10">
-        <v>60000000</v>
-      </c>
-      <c r="C13" s="7">
-        <v>9033</v>
-      </c>
-      <c r="D13" s="10">
-        <v>1</v>
-      </c>
-      <c r="E13" s="7">
-        <v>9033</v>
-      </c>
-      <c r="F13" s="10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="9">
-        <v>12</v>
-      </c>
-      <c r="B14" s="10">
-        <v>65000000</v>
-      </c>
-      <c r="C14" s="7">
-        <v>9009</v>
-      </c>
-      <c r="D14" s="10">
-        <v>3</v>
-      </c>
-      <c r="E14" s="7">
-        <v>9009</v>
-      </c>
-      <c r="F14" s="10">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="9">
-        <v>13</v>
-      </c>
-      <c r="B15" s="10">
-        <v>70000000</v>
-      </c>
-      <c r="C15" s="7">
-        <v>9023</v>
-      </c>
-      <c r="D15" s="10">
-        <v>2</v>
-      </c>
-      <c r="E15" s="7">
-        <v>9023</v>
-      </c>
-      <c r="F15" s="10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="9">
-        <v>14</v>
-      </c>
-      <c r="B16" s="10">
-        <v>75000000</v>
-      </c>
-      <c r="C16" s="7">
-        <v>9017</v>
-      </c>
-      <c r="D16" s="10">
-        <v>1</v>
-      </c>
-      <c r="E16" s="7">
-        <v>9017</v>
-      </c>
-      <c r="F16" s="10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="9">
-        <v>15</v>
-      </c>
-      <c r="B17" s="10">
-        <v>80000000</v>
-      </c>
-      <c r="C17" s="7">
-        <v>9027</v>
-      </c>
-      <c r="D17" s="10">
-        <v>1</v>
-      </c>
-      <c r="E17" s="7">
-        <v>9027</v>
-      </c>
-      <c r="F17" s="10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="9">
-        <v>16</v>
-      </c>
-      <c r="B18" s="10">
-        <v>85000000</v>
-      </c>
-      <c r="C18" s="7">
-        <v>9028</v>
-      </c>
-      <c r="D18" s="10">
-        <v>2</v>
-      </c>
-      <c r="E18" s="7">
-        <v>9028</v>
-      </c>
-      <c r="F18" s="10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="9">
-        <v>17</v>
-      </c>
-      <c r="B19" s="10">
-        <v>90000000</v>
-      </c>
-      <c r="C19" s="7">
-        <v>9033</v>
-      </c>
-      <c r="D19" s="10">
-        <v>1</v>
-      </c>
-      <c r="E19" s="7">
-        <v>9033</v>
-      </c>
-      <c r="F19" s="10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="9">
-        <v>18</v>
-      </c>
-      <c r="B20" s="10">
-        <v>95000000</v>
-      </c>
-      <c r="C20" s="7">
-        <v>9009</v>
-      </c>
-      <c r="D20" s="10">
-        <v>3</v>
-      </c>
-      <c r="E20" s="7">
-        <v>9009</v>
-      </c>
-      <c r="F20" s="10">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="9">
-        <v>19</v>
-      </c>
-      <c r="B21" s="10">
-        <v>100000000</v>
-      </c>
-      <c r="C21" s="7">
-        <v>9023</v>
-      </c>
-      <c r="D21" s="10">
-        <v>2</v>
-      </c>
-      <c r="E21" s="7">
-        <v>9023</v>
-      </c>
-      <c r="F21" s="10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="9">
-        <v>20</v>
-      </c>
-      <c r="B22" s="10">
-        <v>105000000</v>
-      </c>
-      <c r="C22" s="7">
-        <v>9017</v>
-      </c>
-      <c r="D22" s="10">
-        <v>1</v>
-      </c>
-      <c r="E22" s="7">
-        <v>9017</v>
-      </c>
-      <c r="F22" s="10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="9">
-        <v>21</v>
-      </c>
-      <c r="B23" s="10">
-        <v>110000000</v>
-      </c>
-      <c r="C23" s="7">
-        <v>9027</v>
-      </c>
-      <c r="D23" s="10">
-        <v>1</v>
-      </c>
-      <c r="E23" s="7">
-        <v>9027</v>
-      </c>
-      <c r="F23" s="10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="9">
-        <v>22</v>
-      </c>
-      <c r="B24" s="10">
-        <v>115000000</v>
-      </c>
-      <c r="C24" s="7">
-        <v>9028</v>
-      </c>
-      <c r="D24" s="10">
-        <v>2</v>
-      </c>
-      <c r="E24" s="7">
-        <v>9028</v>
-      </c>
-      <c r="F24" s="10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="9">
-        <v>23</v>
-      </c>
-      <c r="B25" s="10">
-        <v>120000000</v>
-      </c>
-      <c r="C25" s="7">
-        <v>9033</v>
-      </c>
-      <c r="D25" s="10">
-        <v>1</v>
-      </c>
-      <c r="E25" s="7">
-        <v>9033</v>
-      </c>
-      <c r="F25" s="10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="9">
-        <v>24</v>
-      </c>
-      <c r="B26" s="10">
-        <v>125000000</v>
-      </c>
-      <c r="C26" s="7">
-        <v>9009</v>
-      </c>
-      <c r="D26" s="10">
-        <v>3</v>
-      </c>
-      <c r="E26" s="7">
-        <v>9009</v>
-      </c>
-      <c r="F26" s="10">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="9">
-        <v>25</v>
-      </c>
-      <c r="B27" s="10">
-        <v>130000000</v>
-      </c>
-      <c r="C27" s="7">
-        <v>9023</v>
-      </c>
-      <c r="D27" s="10">
-        <v>2</v>
-      </c>
-      <c r="E27" s="7">
-        <v>9023</v>
-      </c>
-      <c r="F27" s="10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="9">
-        <v>26</v>
-      </c>
-      <c r="B28" s="10">
-        <v>135000000</v>
-      </c>
-      <c r="C28" s="7">
-        <v>9017</v>
-      </c>
-      <c r="D28" s="10">
-        <v>1</v>
-      </c>
-      <c r="E28" s="7">
-        <v>9017</v>
-      </c>
-      <c r="F28" s="10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="9">
-        <v>27</v>
-      </c>
-      <c r="B29" s="10">
-        <v>140000000</v>
-      </c>
-      <c r="C29" s="7">
-        <v>9027</v>
-      </c>
-      <c r="D29" s="10">
-        <v>1</v>
-      </c>
-      <c r="E29" s="7">
-        <v>9027</v>
-      </c>
-      <c r="F29" s="10">
-        <v>5</v>
-      </c>
-    </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="9">
+      <c r="A30" s="7">
         <v>28</v>
       </c>
-      <c r="B30" s="10">
+      <c r="B30" s="8">
         <v>145000000</v>
       </c>
-      <c r="C30" s="7">
-        <v>9028</v>
-      </c>
-      <c r="D30" s="10">
-        <v>2</v>
-      </c>
-      <c r="E30" s="7">
-        <v>9028</v>
-      </c>
-      <c r="F30" s="10">
-        <v>10</v>
+      <c r="C30" s="5">
+        <v>9044</v>
+      </c>
+      <c r="D30" s="8">
+        <v>1</v>
+      </c>
+      <c r="E30" s="5">
+        <v>9044</v>
+      </c>
+      <c r="F30" s="8">
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="9">
+      <c r="A31" s="7">
         <v>29</v>
       </c>
-      <c r="B31" s="10">
+      <c r="B31" s="8">
         <v>150000000</v>
       </c>
-      <c r="C31" s="7">
-        <v>9033</v>
-      </c>
-      <c r="D31" s="10">
-        <v>1</v>
-      </c>
-      <c r="E31" s="7">
-        <v>9033</v>
-      </c>
-      <c r="F31" s="10">
+      <c r="C31" s="5">
+        <v>9038</v>
+      </c>
+      <c r="D31" s="8">
+        <v>1</v>
+      </c>
+      <c r="E31" s="5">
+        <v>9038</v>
+      </c>
+      <c r="F31" s="8">
         <v>5</v>
       </c>
     </row>
@@ -1240,10 +1280,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02110237-7B30-4837-87BA-FD176F5AB329}">
-  <dimension ref="A2:M24"/>
+  <dimension ref="A2:M34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1284,24 +1324,24 @@
       <c r="G4" s="3"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="I6" s="4" t="s">
+      <c r="C6" s="9"/>
+      <c r="I6" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="J6" s="4"/>
+      <c r="J6" s="9"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="I7" s="5" t="s">
+      <c r="C7" s="10"/>
+      <c r="I7" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="J7" s="5"/>
+      <c r="J7" s="10"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -1336,7 +1376,7 @@
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="7">
+      <c r="A9" s="5">
         <v>9028</v>
       </c>
       <c r="B9" t="s">
@@ -1355,7 +1395,7 @@
       <c r="F9">
         <v>12</v>
       </c>
-      <c r="H9" s="7">
+      <c r="H9" s="5">
         <v>9028</v>
       </c>
       <c r="I9" t="s">
@@ -1376,7 +1416,7 @@
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="7">
+      <c r="A10" s="5">
         <v>9027</v>
       </c>
       <c r="B10" t="s">
@@ -1395,7 +1435,7 @@
       <c r="F10">
         <v>8</v>
       </c>
-      <c r="H10" s="7">
+      <c r="H10" s="5">
         <v>9027</v>
       </c>
       <c r="I10" t="s">
@@ -1416,7 +1456,7 @@
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="7">
+      <c r="A11" s="5">
         <v>9017</v>
       </c>
       <c r="B11" t="s">
@@ -1435,7 +1475,7 @@
       <c r="F11">
         <v>10</v>
       </c>
-      <c r="H11" s="7">
+      <c r="H11" s="5">
         <v>9017</v>
       </c>
       <c r="I11" t="s">
@@ -1456,7 +1496,7 @@
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="7">
+      <c r="A12" s="5">
         <v>9023</v>
       </c>
       <c r="B12" t="s">
@@ -1475,7 +1515,7 @@
       <c r="F12">
         <v>15</v>
       </c>
-      <c r="H12" s="7">
+      <c r="H12" s="5">
         <v>9023</v>
       </c>
       <c r="I12" t="s">
@@ -1496,7 +1536,7 @@
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="7">
+      <c r="A13" s="5">
         <v>9009</v>
       </c>
       <c r="B13" t="s">
@@ -1515,7 +1555,7 @@
       <c r="F13">
         <v>20</v>
       </c>
-      <c r="H13" s="7">
+      <c r="H13" s="5">
         <v>9009</v>
       </c>
       <c r="I13" t="s">
@@ -1536,10 +1576,10 @@
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="7"/>
+      <c r="A14" s="5"/>
       <c r="C14" s="3"/>
       <c r="E14" s="3"/>
-      <c r="H14" s="7">
+      <c r="H14" s="5">
         <v>9033</v>
       </c>
       <c r="I14" t="s">
@@ -1600,7 +1640,7 @@
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" s="7">
+      <c r="A19" s="5">
         <v>9028</v>
       </c>
       <c r="B19" t="s">
@@ -1618,7 +1658,7 @@
       <c r="F19">
         <v>18</v>
       </c>
-      <c r="H19" s="7">
+      <c r="H19" s="5">
         <v>9028</v>
       </c>
       <c r="I19" t="s">
@@ -1626,19 +1666,19 @@
       </c>
       <c r="J19" s="3">
         <f>SUMIF(WinterPass!C:C,'보상 측정'!H19,WinterPass!D:D)</f>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K19" s="3">
         <f>SUMIF(WinterPass!E:E,'보상 측정'!H19,WinterPass!F:F)</f>
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="L19" s="3">
         <f>J19+K19</f>
-        <v>60</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20" s="7">
+      <c r="A20" s="5">
         <v>9027</v>
       </c>
       <c r="B20" t="s">
@@ -1656,7 +1696,7 @@
       <c r="F20">
         <v>18</v>
       </c>
-      <c r="H20" s="7">
+      <c r="H20" s="5">
         <v>9027</v>
       </c>
       <c r="I20" t="s">
@@ -1664,19 +1704,19 @@
       </c>
       <c r="J20" s="3">
         <f>SUMIF(WinterPass!C:C,'보상 측정'!H20,WinterPass!D:D)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K20" s="3">
         <f>SUMIF(WinterPass!E:E,'보상 측정'!H20,WinterPass!F:F)</f>
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="L20" s="3">
         <f t="shared" ref="L20:L24" si="3">J20+K20</f>
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" s="7">
+      <c r="A21" s="5">
         <v>9017</v>
       </c>
       <c r="B21" t="s">
@@ -1694,7 +1734,7 @@
       <c r="F21">
         <v>18</v>
       </c>
-      <c r="H21" s="7">
+      <c r="H21" s="5">
         <v>9017</v>
       </c>
       <c r="I21" t="s">
@@ -1702,19 +1742,19 @@
       </c>
       <c r="J21" s="3">
         <f>SUMIF(WinterPass!C:C,'보상 측정'!H21,WinterPass!D:D)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K21" s="3">
         <f>SUMIF(WinterPass!E:E,'보상 측정'!H21,WinterPass!F:F)</f>
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="L21" s="3">
         <f t="shared" si="3"/>
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22" s="7">
+      <c r="A22" s="5">
         <v>9023</v>
       </c>
       <c r="B22" t="s">
@@ -1729,7 +1769,7 @@
       <c r="E22" s="3">
         <v>72</v>
       </c>
-      <c r="H22" s="7">
+      <c r="H22" s="5">
         <v>9023</v>
       </c>
       <c r="I22" t="s">
@@ -1737,19 +1777,19 @@
       </c>
       <c r="J22" s="3">
         <f>SUMIF(WinterPass!C:C,'보상 측정'!H22,WinterPass!D:D)</f>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K22" s="3">
         <f>SUMIF(WinterPass!E:E,'보상 측정'!H22,WinterPass!F:F)</f>
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="L22" s="3">
         <f t="shared" si="3"/>
-        <v>60</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A23" s="7">
+      <c r="A23" s="5">
         <v>9009</v>
       </c>
       <c r="B23" t="s">
@@ -1764,7 +1804,7 @@
       <c r="E23" s="3">
         <v>90</v>
       </c>
-      <c r="H23" s="7">
+      <c r="H23" s="5">
         <v>9009</v>
       </c>
       <c r="I23" t="s">
@@ -1772,19 +1812,19 @@
       </c>
       <c r="J23" s="3">
         <f>SUMIF(WinterPass!C:C,'보상 측정'!H23,WinterPass!D:D)</f>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="K23" s="3">
         <f>SUMIF(WinterPass!E:E,'보상 측정'!H23,WinterPass!F:F)</f>
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="L23" s="3">
         <f t="shared" si="3"/>
-        <v>75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="H24" s="7">
+      <c r="H24" s="5">
         <v>9033</v>
       </c>
       <c r="I24" t="s">
@@ -1792,23 +1832,209 @@
       </c>
       <c r="J24" s="3">
         <f>SUMIF(WinterPass!C:C,'보상 측정'!H24,WinterPass!D:D)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K24" s="3">
         <f>SUMIF(WinterPass!E:E,'보상 측정'!H24,WinterPass!F:F)</f>
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="L24" s="3">
         <f t="shared" si="3"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H26" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H27" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="I27" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="J27" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="K27" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="L27" s="12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="G28" t="s">
+        <v>28</v>
+      </c>
+      <c r="H28" s="5">
+        <v>9044</v>
+      </c>
+      <c r="I28" t="s">
+        <v>29</v>
+      </c>
+      <c r="J28" s="3">
+        <f ca="1">SUMIF(WinterPass!C:D,'보상 측정'!H28,WinterPass!D:D)</f>
+        <v>5</v>
+      </c>
+      <c r="K28" s="3">
+        <f ca="1">SUMIF(WinterPass!E:F,'보상 측정'!H28,WinterPass!F:F)</f>
+        <v>25</v>
+      </c>
+      <c r="L28" s="3">
+        <f ca="1">J28+K28</f>
         <v>30</v>
       </c>
     </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="G29" t="s">
+        <v>28</v>
+      </c>
+      <c r="H29" s="5">
+        <v>9038</v>
+      </c>
+      <c r="I29" t="s">
+        <v>30</v>
+      </c>
+      <c r="J29" s="3">
+        <f ca="1">SUMIF(WinterPass!C:D,'보상 측정'!H29,WinterPass!D:D)</f>
+        <v>5</v>
+      </c>
+      <c r="K29" s="3">
+        <f ca="1">SUMIF(WinterPass!E:F,'보상 측정'!H29,WinterPass!F:F)</f>
+        <v>25</v>
+      </c>
+      <c r="L29" s="3">
+        <f t="shared" ref="L29:L34" ca="1" si="4">J29+K29</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="G30" t="s">
+        <v>28</v>
+      </c>
+      <c r="H30" s="5">
+        <v>9033</v>
+      </c>
+      <c r="I30" t="s">
+        <v>26</v>
+      </c>
+      <c r="J30" s="3">
+        <f ca="1">SUMIF(WinterPass!C:D,'보상 측정'!H30,WinterPass!D:D)</f>
+        <v>4</v>
+      </c>
+      <c r="K30" s="3">
+        <f ca="1">SUMIF(WinterPass!E:F,'보상 측정'!H30,WinterPass!F:F)</f>
+        <v>20</v>
+      </c>
+      <c r="L30" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="G31" t="s">
+        <v>31</v>
+      </c>
+      <c r="H31" s="5">
+        <v>9028</v>
+      </c>
+      <c r="I31" t="s">
+        <v>15</v>
+      </c>
+      <c r="J31" s="3">
+        <f ca="1">SUMIF(WinterPass!C:D,'보상 측정'!H31,WinterPass!D:D)</f>
+        <v>8</v>
+      </c>
+      <c r="K31" s="3">
+        <f ca="1">SUMIF(WinterPass!E:F,'보상 측정'!H31,WinterPass!F:F)</f>
+        <v>40</v>
+      </c>
+      <c r="L31" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="G32" t="s">
+        <v>28</v>
+      </c>
+      <c r="H32" s="5">
+        <v>9027</v>
+      </c>
+      <c r="I32" t="s">
+        <v>16</v>
+      </c>
+      <c r="J32" s="3">
+        <f ca="1">SUMIF(WinterPass!C:D,'보상 측정'!H32,WinterPass!D:D)</f>
+        <v>4</v>
+      </c>
+      <c r="K32" s="3">
+        <f ca="1">SUMIF(WinterPass!E:F,'보상 측정'!H32,WinterPass!F:F)</f>
+        <v>20</v>
+      </c>
+      <c r="L32" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" spans="7:12" x14ac:dyDescent="0.3">
+      <c r="G33" t="s">
+        <v>28</v>
+      </c>
+      <c r="H33" s="5">
+        <v>9017</v>
+      </c>
+      <c r="I33" t="s">
+        <v>17</v>
+      </c>
+      <c r="J33" s="3">
+        <f ca="1">SUMIF(WinterPass!C:D,'보상 측정'!H33,WinterPass!D:D)</f>
+        <v>4</v>
+      </c>
+      <c r="K33" s="3">
+        <f ca="1">SUMIF(WinterPass!E:F,'보상 측정'!H33,WinterPass!F:F)</f>
+        <v>20</v>
+      </c>
+      <c r="L33" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="34" spans="7:12" x14ac:dyDescent="0.3">
+      <c r="G34" t="s">
+        <v>31</v>
+      </c>
+      <c r="H34" s="5">
+        <v>9023</v>
+      </c>
+      <c r="I34" t="s">
+        <v>18</v>
+      </c>
+      <c r="J34" s="3">
+        <f ca="1">SUMIF(WinterPass!C:D,'보상 측정'!H34,WinterPass!D:D)</f>
+        <v>8</v>
+      </c>
+      <c r="K34" s="3">
+        <f ca="1">SUMIF(WinterPass!E:F,'보상 측정'!H34,WinterPass!F:F)</f>
+        <v>40</v>
+      </c>
+      <c r="L34" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>48</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="I7:J7"/>
+    <mergeCell ref="H26:J26"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/WinterPass.xlsx
+++ b/Assets/06.Table/WinterPass.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D0A6798-1933-4AC0-AD57-470D490F8CEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54331AEC-A1CE-48D3-AB63-09CEDF31DE33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="34">
   <si>
     <t>Id</t>
   </si>
@@ -157,6 +157,14 @@
   </si>
   <si>
     <t>2,10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>겨울 훈련 소탕권 최종 지급량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,15</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -307,6 +315,9 @@
     <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -314,9 +325,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -638,7 +646,7 @@
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -682,13 +690,13 @@
         <v>9044</v>
       </c>
       <c r="D2" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E2" s="5">
         <v>9044</v>
       </c>
       <c r="F2" s="8">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
@@ -702,13 +710,13 @@
         <v>9038</v>
       </c>
       <c r="D3" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3" s="5">
         <v>9038</v>
       </c>
       <c r="F3" s="8">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
@@ -722,13 +730,13 @@
         <v>9033</v>
       </c>
       <c r="D4" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E4" s="5">
         <v>9033</v>
       </c>
       <c r="F4" s="8">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
@@ -742,13 +750,13 @@
         <v>9028</v>
       </c>
       <c r="D5" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E5" s="5">
         <v>9028</v>
       </c>
       <c r="F5" s="8">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -762,13 +770,13 @@
         <v>9027</v>
       </c>
       <c r="D6" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E6" s="5">
         <v>9027</v>
       </c>
       <c r="F6" s="8">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
@@ -782,13 +790,13 @@
         <v>9017</v>
       </c>
       <c r="D7" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E7" s="5">
         <v>9017</v>
       </c>
       <c r="F7" s="8">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -802,13 +810,13 @@
         <v>9023</v>
       </c>
       <c r="D8" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E8" s="5">
         <v>9023</v>
       </c>
       <c r="F8" s="8">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -822,13 +830,13 @@
         <v>9044</v>
       </c>
       <c r="D9" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E9" s="5">
         <v>9044</v>
       </c>
       <c r="F9" s="8">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -842,13 +850,13 @@
         <v>9038</v>
       </c>
       <c r="D10" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E10" s="5">
         <v>9038</v>
       </c>
       <c r="F10" s="8">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -862,13 +870,13 @@
         <v>9033</v>
       </c>
       <c r="D11" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E11" s="5">
         <v>9033</v>
       </c>
       <c r="F11" s="8">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -882,13 +890,13 @@
         <v>9028</v>
       </c>
       <c r="D12" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E12" s="5">
         <v>9028</v>
       </c>
       <c r="F12" s="8">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -902,13 +910,13 @@
         <v>9027</v>
       </c>
       <c r="D13" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E13" s="5">
         <v>9027</v>
       </c>
       <c r="F13" s="8">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -922,13 +930,13 @@
         <v>9017</v>
       </c>
       <c r="D14" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E14" s="5">
         <v>9017</v>
       </c>
       <c r="F14" s="8">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -942,13 +950,13 @@
         <v>9023</v>
       </c>
       <c r="D15" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E15" s="5">
         <v>9023</v>
       </c>
       <c r="F15" s="8">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -962,13 +970,13 @@
         <v>9044</v>
       </c>
       <c r="D16" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E16" s="5">
         <v>9044</v>
       </c>
       <c r="F16" s="8">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -982,13 +990,13 @@
         <v>9038</v>
       </c>
       <c r="D17" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E17" s="5">
         <v>9038</v>
       </c>
       <c r="F17" s="8">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -1002,13 +1010,13 @@
         <v>9033</v>
       </c>
       <c r="D18" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E18" s="5">
         <v>9033</v>
       </c>
       <c r="F18" s="8">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -1022,13 +1030,13 @@
         <v>9028</v>
       </c>
       <c r="D19" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E19" s="5">
         <v>9028</v>
       </c>
       <c r="F19" s="8">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -1042,13 +1050,13 @@
         <v>9027</v>
       </c>
       <c r="D20" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E20" s="5">
         <v>9027</v>
       </c>
       <c r="F20" s="8">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -1062,13 +1070,13 @@
         <v>9017</v>
       </c>
       <c r="D21" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E21" s="5">
         <v>9017</v>
       </c>
       <c r="F21" s="8">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -1082,13 +1090,13 @@
         <v>9023</v>
       </c>
       <c r="D22" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E22" s="5">
         <v>9023</v>
       </c>
       <c r="F22" s="8">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -1102,13 +1110,13 @@
         <v>9044</v>
       </c>
       <c r="D23" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E23" s="5">
         <v>9044</v>
       </c>
       <c r="F23" s="8">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -1122,13 +1130,13 @@
         <v>9038</v>
       </c>
       <c r="D24" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E24" s="5">
         <v>9038</v>
       </c>
       <c r="F24" s="8">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -1142,13 +1150,13 @@
         <v>9033</v>
       </c>
       <c r="D25" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E25" s="5">
         <v>9033</v>
       </c>
       <c r="F25" s="8">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -1162,13 +1170,13 @@
         <v>9028</v>
       </c>
       <c r="D26" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E26" s="5">
         <v>9028</v>
       </c>
       <c r="F26" s="8">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -1182,13 +1190,13 @@
         <v>9027</v>
       </c>
       <c r="D27" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E27" s="5">
         <v>9027</v>
       </c>
       <c r="F27" s="8">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -1202,13 +1210,13 @@
         <v>9017</v>
       </c>
       <c r="D28" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E28" s="5">
         <v>9017</v>
       </c>
       <c r="F28" s="8">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -1222,13 +1230,13 @@
         <v>9023</v>
       </c>
       <c r="D29" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E29" s="5">
         <v>9023</v>
       </c>
       <c r="F29" s="8">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -1242,13 +1250,13 @@
         <v>9044</v>
       </c>
       <c r="D30" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E30" s="5">
         <v>9044</v>
       </c>
       <c r="F30" s="8">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -1262,13 +1270,13 @@
         <v>9038</v>
       </c>
       <c r="D31" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E31" s="5">
         <v>9038</v>
       </c>
       <c r="F31" s="8">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1280,10 +1288,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02110237-7B30-4837-87BA-FD176F5AB329}">
-  <dimension ref="A2:M34"/>
+  <dimension ref="A2:M45"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="K31" sqref="K31"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="L40" sqref="L40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1324,24 +1332,24 @@
       <c r="G4" s="3"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="I6" s="9" t="s">
+      <c r="C6" s="10"/>
+      <c r="I6" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="J6" s="9"/>
+      <c r="J6" s="10"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="10"/>
-      <c r="I7" s="10" t="s">
+      <c r="C7" s="11"/>
+      <c r="I7" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="J7" s="10"/>
+      <c r="J7" s="11"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -1666,15 +1674,15 @@
       </c>
       <c r="J19" s="3">
         <f>SUMIF(WinterPass!C:C,'보상 측정'!H19,WinterPass!D:D)</f>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="K19" s="3">
         <f>SUMIF(WinterPass!E:E,'보상 측정'!H19,WinterPass!F:F)</f>
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="L19" s="3">
         <f>J19+K19</f>
-        <v>48</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
@@ -1704,15 +1712,15 @@
       </c>
       <c r="J20" s="3">
         <f>SUMIF(WinterPass!C:C,'보상 측정'!H20,WinterPass!D:D)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="K20" s="3">
         <f>SUMIF(WinterPass!E:E,'보상 측정'!H20,WinterPass!F:F)</f>
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="L20" s="3">
         <f t="shared" ref="L20:L24" si="3">J20+K20</f>
-        <v>24</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
@@ -1742,15 +1750,15 @@
       </c>
       <c r="J21" s="3">
         <f>SUMIF(WinterPass!C:C,'보상 측정'!H21,WinterPass!D:D)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="K21" s="3">
         <f>SUMIF(WinterPass!E:E,'보상 측정'!H21,WinterPass!F:F)</f>
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="L21" s="3">
         <f t="shared" si="3"/>
-        <v>24</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
@@ -1777,15 +1785,15 @@
       </c>
       <c r="J22" s="3">
         <f>SUMIF(WinterPass!C:C,'보상 측정'!H22,WinterPass!D:D)</f>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="K22" s="3">
         <f>SUMIF(WinterPass!E:E,'보상 측정'!H22,WinterPass!F:F)</f>
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="L22" s="3">
         <f t="shared" si="3"/>
-        <v>48</v>
+        <v>72</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
@@ -1832,38 +1840,38 @@
       </c>
       <c r="J24" s="3">
         <f>SUMIF(WinterPass!C:C,'보상 측정'!H24,WinterPass!D:D)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="K24" s="3">
         <f>SUMIF(WinterPass!E:E,'보상 측정'!H24,WinterPass!F:F)</f>
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="L24" s="3">
         <f t="shared" si="3"/>
-        <v>24</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="H26" s="11" t="s">
+      <c r="H26" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="I26" s="11"/>
-      <c r="J26" s="11"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="H27" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="I27" s="12" t="s">
+      <c r="H27" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I27" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="J27" s="12" t="s">
+      <c r="J27" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="K27" s="12" t="s">
+      <c r="K27" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="L27" s="12" t="s">
+      <c r="L27" s="9" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1879,15 +1887,15 @@
       </c>
       <c r="J28" s="3">
         <f ca="1">SUMIF(WinterPass!C:D,'보상 측정'!H28,WinterPass!D:D)</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K28" s="3">
         <f ca="1">SUMIF(WinterPass!E:F,'보상 측정'!H28,WinterPass!F:F)</f>
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="L28" s="3">
         <f ca="1">J28+K28</f>
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
@@ -1902,15 +1910,15 @@
       </c>
       <c r="J29" s="3">
         <f ca="1">SUMIF(WinterPass!C:D,'보상 측정'!H29,WinterPass!D:D)</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K29" s="3">
         <f ca="1">SUMIF(WinterPass!E:F,'보상 측정'!H29,WinterPass!F:F)</f>
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="L29" s="3">
         <f t="shared" ref="L29:L34" ca="1" si="4">J29+K29</f>
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
@@ -1925,15 +1933,15 @@
       </c>
       <c r="J30" s="3">
         <f ca="1">SUMIF(WinterPass!C:D,'보상 측정'!H30,WinterPass!D:D)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="K30" s="3">
         <f ca="1">SUMIF(WinterPass!E:F,'보상 측정'!H30,WinterPass!F:F)</f>
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="L30" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>24</v>
+        <v>48</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
@@ -1948,15 +1956,15 @@
       </c>
       <c r="J31" s="3">
         <f ca="1">SUMIF(WinterPass!C:D,'보상 측정'!H31,WinterPass!D:D)</f>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="K31" s="3">
         <f ca="1">SUMIF(WinterPass!E:F,'보상 측정'!H31,WinterPass!F:F)</f>
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="L31" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>48</v>
+        <v>72</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
@@ -1971,15 +1979,15 @@
       </c>
       <c r="J32" s="3">
         <f ca="1">SUMIF(WinterPass!C:D,'보상 측정'!H32,WinterPass!D:D)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="K32" s="3">
         <f ca="1">SUMIF(WinterPass!E:F,'보상 측정'!H32,WinterPass!F:F)</f>
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="L32" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>24</v>
+        <v>48</v>
       </c>
     </row>
     <row r="33" spans="7:12" x14ac:dyDescent="0.3">
@@ -1994,15 +2002,15 @@
       </c>
       <c r="J33" s="3">
         <f ca="1">SUMIF(WinterPass!C:D,'보상 측정'!H33,WinterPass!D:D)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="K33" s="3">
         <f ca="1">SUMIF(WinterPass!E:F,'보상 측정'!H33,WinterPass!F:F)</f>
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="L33" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>24</v>
+        <v>48</v>
       </c>
     </row>
     <row r="34" spans="7:12" x14ac:dyDescent="0.3">
@@ -2017,19 +2025,205 @@
       </c>
       <c r="J34" s="3">
         <f ca="1">SUMIF(WinterPass!C:D,'보상 측정'!H34,WinterPass!D:D)</f>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="K34" s="3">
         <f ca="1">SUMIF(WinterPass!E:F,'보상 측정'!H34,WinterPass!F:F)</f>
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="L34" s="3">
         <f t="shared" ca="1" si="4"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="37" spans="7:12" x14ac:dyDescent="0.3">
+      <c r="H37" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="I37" s="12"/>
+      <c r="J37" s="12"/>
+    </row>
+    <row r="38" spans="7:12" x14ac:dyDescent="0.3">
+      <c r="H38" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I38" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="J38" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="K38" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L38" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39" spans="7:12" x14ac:dyDescent="0.3">
+      <c r="G39" t="s">
+        <v>31</v>
+      </c>
+      <c r="H39" s="5">
+        <v>9044</v>
+      </c>
+      <c r="I39" t="s">
+        <v>29</v>
+      </c>
+      <c r="J39" s="3">
+        <f ca="1">SUMIF(WinterPass!C:D,'보상 측정'!H39,WinterPass!D:D)</f>
+        <v>10</v>
+      </c>
+      <c r="K39" s="3">
+        <f ca="1">SUMIF(WinterPass!E:F,'보상 측정'!H39,WinterPass!F:F)</f>
+        <v>50</v>
+      </c>
+      <c r="L39" s="3">
+        <f ca="1">J39+K39</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="40" spans="7:12" x14ac:dyDescent="0.3">
+      <c r="G40" t="s">
+        <v>31</v>
+      </c>
+      <c r="H40" s="5">
+        <v>9038</v>
+      </c>
+      <c r="I40" t="s">
+        <v>30</v>
+      </c>
+      <c r="J40" s="3">
+        <f ca="1">SUMIF(WinterPass!C:D,'보상 측정'!H40,WinterPass!D:D)</f>
+        <v>10</v>
+      </c>
+      <c r="K40" s="3">
+        <f ca="1">SUMIF(WinterPass!E:F,'보상 측정'!H40,WinterPass!F:F)</f>
+        <v>50</v>
+      </c>
+      <c r="L40" s="3">
+        <f t="shared" ref="L40:L45" ca="1" si="5">J40+K40</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="41" spans="7:12" x14ac:dyDescent="0.3">
+      <c r="G41" t="s">
+        <v>31</v>
+      </c>
+      <c r="H41" s="5">
+        <v>9033</v>
+      </c>
+      <c r="I41" t="s">
+        <v>26</v>
+      </c>
+      <c r="J41" s="3">
+        <f ca="1">SUMIF(WinterPass!C:D,'보상 측정'!H41,WinterPass!D:D)</f>
+        <v>8</v>
+      </c>
+      <c r="K41" s="3">
+        <f ca="1">SUMIF(WinterPass!E:F,'보상 측정'!H41,WinterPass!F:F)</f>
+        <v>40</v>
+      </c>
+      <c r="L41" s="3">
+        <f t="shared" ca="1" si="5"/>
         <v>48</v>
       </c>
     </row>
+    <row r="42" spans="7:12" x14ac:dyDescent="0.3">
+      <c r="G42" t="s">
+        <v>33</v>
+      </c>
+      <c r="H42" s="5">
+        <v>9028</v>
+      </c>
+      <c r="I42" t="s">
+        <v>15</v>
+      </c>
+      <c r="J42" s="3">
+        <f ca="1">SUMIF(WinterPass!C:D,'보상 측정'!H42,WinterPass!D:D)</f>
+        <v>12</v>
+      </c>
+      <c r="K42" s="3">
+        <f ca="1">SUMIF(WinterPass!E:F,'보상 측정'!H42,WinterPass!F:F)</f>
+        <v>60</v>
+      </c>
+      <c r="L42" s="3">
+        <f t="shared" ca="1" si="5"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="43" spans="7:12" x14ac:dyDescent="0.3">
+      <c r="G43" t="s">
+        <v>31</v>
+      </c>
+      <c r="H43" s="5">
+        <v>9027</v>
+      </c>
+      <c r="I43" t="s">
+        <v>16</v>
+      </c>
+      <c r="J43" s="3">
+        <f ca="1">SUMIF(WinterPass!C:D,'보상 측정'!H43,WinterPass!D:D)</f>
+        <v>8</v>
+      </c>
+      <c r="K43" s="3">
+        <f ca="1">SUMIF(WinterPass!E:F,'보상 측정'!H43,WinterPass!F:F)</f>
+        <v>40</v>
+      </c>
+      <c r="L43" s="3">
+        <f t="shared" ca="1" si="5"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="44" spans="7:12" x14ac:dyDescent="0.3">
+      <c r="G44" t="s">
+        <v>31</v>
+      </c>
+      <c r="H44" s="5">
+        <v>9017</v>
+      </c>
+      <c r="I44" t="s">
+        <v>17</v>
+      </c>
+      <c r="J44" s="3">
+        <f ca="1">SUMIF(WinterPass!C:D,'보상 측정'!H44,WinterPass!D:D)</f>
+        <v>8</v>
+      </c>
+      <c r="K44" s="3">
+        <f ca="1">SUMIF(WinterPass!E:F,'보상 측정'!H44,WinterPass!F:F)</f>
+        <v>40</v>
+      </c>
+      <c r="L44" s="3">
+        <f t="shared" ca="1" si="5"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="45" spans="7:12" x14ac:dyDescent="0.3">
+      <c r="G45" t="s">
+        <v>33</v>
+      </c>
+      <c r="H45" s="5">
+        <v>9023</v>
+      </c>
+      <c r="I45" t="s">
+        <v>18</v>
+      </c>
+      <c r="J45" s="3">
+        <f ca="1">SUMIF(WinterPass!C:D,'보상 측정'!H45,WinterPass!D:D)</f>
+        <v>12</v>
+      </c>
+      <c r="K45" s="3">
+        <f ca="1">SUMIF(WinterPass!E:F,'보상 측정'!H45,WinterPass!F:F)</f>
+        <v>60</v>
+      </c>
+      <c r="L45" s="3">
+        <f t="shared" ca="1" si="5"/>
+        <v>72</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="H37:J37"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="B7:C7"/>

--- a/Assets/06.Table/WinterPass.xlsx
+++ b/Assets/06.Table/WinterPass.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54331AEC-A1CE-48D3-AB63-09CEDF31DE33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E596ECD-9F53-4EEA-AA05-04C5037B02AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="WinterPass" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="35">
   <si>
     <t>Id</t>
   </si>
@@ -165,6 +165,10 @@
   </si>
   <si>
     <t>3,15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>새해맞이 훈련 소탕권 최종 지급량</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -318,13 +322,13 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -645,8 +649,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1288,10 +1292,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02110237-7B30-4837-87BA-FD176F5AB329}">
-  <dimension ref="A2:M45"/>
+  <dimension ref="A2:M56"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="L40" sqref="L40"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="G51" sqref="G51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1332,24 +1336,24 @@
       <c r="G4" s="3"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="10"/>
-      <c r="I6" s="10" t="s">
+      <c r="C6" s="11"/>
+      <c r="I6" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="J6" s="10"/>
+      <c r="J6" s="11"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="11"/>
-      <c r="I7" s="11" t="s">
+      <c r="C7" s="12"/>
+      <c r="I7" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="J7" s="11"/>
+      <c r="J7" s="12"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -1852,11 +1856,11 @@
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="H26" s="12" t="s">
+      <c r="H26" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I26" s="12"/>
-      <c r="J26" s="12"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="H27" s="9" t="s">
@@ -2037,11 +2041,11 @@
       </c>
     </row>
     <row r="37" spans="7:12" x14ac:dyDescent="0.3">
-      <c r="H37" s="12" t="s">
+      <c r="H37" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="I37" s="12"/>
-      <c r="J37" s="12"/>
+      <c r="I37" s="10"/>
+      <c r="J37" s="10"/>
     </row>
     <row r="38" spans="7:12" x14ac:dyDescent="0.3">
       <c r="H38" s="9" t="s">
@@ -2221,8 +2225,194 @@
         <v>72</v>
       </c>
     </row>
+    <row r="48" spans="7:12" x14ac:dyDescent="0.3">
+      <c r="H48" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="I48" s="10"/>
+      <c r="J48" s="10"/>
+    </row>
+    <row r="49" spans="7:12" x14ac:dyDescent="0.3">
+      <c r="H49" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I49" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="J49" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="K49" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L49" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="50" spans="7:12" x14ac:dyDescent="0.3">
+      <c r="G50" t="s">
+        <v>31</v>
+      </c>
+      <c r="H50" s="5">
+        <v>9044</v>
+      </c>
+      <c r="I50" t="s">
+        <v>29</v>
+      </c>
+      <c r="J50" s="3">
+        <f ca="1">SUMIF(WinterPass!C:D,'보상 측정'!H50,WinterPass!D:D)</f>
+        <v>10</v>
+      </c>
+      <c r="K50" s="3">
+        <f ca="1">SUMIF(WinterPass!E:F,'보상 측정'!H50,WinterPass!F:F)</f>
+        <v>50</v>
+      </c>
+      <c r="L50" s="3">
+        <f ca="1">J50+K50</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="51" spans="7:12" x14ac:dyDescent="0.3">
+      <c r="G51" t="s">
+        <v>31</v>
+      </c>
+      <c r="H51" s="5">
+        <v>9038</v>
+      </c>
+      <c r="I51" t="s">
+        <v>30</v>
+      </c>
+      <c r="J51" s="3">
+        <f ca="1">SUMIF(WinterPass!C:D,'보상 측정'!H51,WinterPass!D:D)</f>
+        <v>10</v>
+      </c>
+      <c r="K51" s="3">
+        <f ca="1">SUMIF(WinterPass!E:F,'보상 측정'!H51,WinterPass!F:F)</f>
+        <v>50</v>
+      </c>
+      <c r="L51" s="3">
+        <f t="shared" ref="L51:L56" ca="1" si="6">J51+K51</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="52" spans="7:12" x14ac:dyDescent="0.3">
+      <c r="G52" t="s">
+        <v>31</v>
+      </c>
+      <c r="H52" s="5">
+        <v>9033</v>
+      </c>
+      <c r="I52" t="s">
+        <v>26</v>
+      </c>
+      <c r="J52" s="3">
+        <f ca="1">SUMIF(WinterPass!C:D,'보상 측정'!H52,WinterPass!D:D)</f>
+        <v>8</v>
+      </c>
+      <c r="K52" s="3">
+        <f ca="1">SUMIF(WinterPass!E:F,'보상 측정'!H52,WinterPass!F:F)</f>
+        <v>40</v>
+      </c>
+      <c r="L52" s="3">
+        <f t="shared" ca="1" si="6"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="53" spans="7:12" x14ac:dyDescent="0.3">
+      <c r="G53" t="s">
+        <v>33</v>
+      </c>
+      <c r="H53" s="5">
+        <v>9028</v>
+      </c>
+      <c r="I53" t="s">
+        <v>15</v>
+      </c>
+      <c r="J53" s="3">
+        <f ca="1">SUMIF(WinterPass!C:D,'보상 측정'!H53,WinterPass!D:D)</f>
+        <v>12</v>
+      </c>
+      <c r="K53" s="3">
+        <f ca="1">SUMIF(WinterPass!E:F,'보상 측정'!H53,WinterPass!F:F)</f>
+        <v>60</v>
+      </c>
+      <c r="L53" s="3">
+        <f t="shared" ca="1" si="6"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="54" spans="7:12" x14ac:dyDescent="0.3">
+      <c r="G54" t="s">
+        <v>31</v>
+      </c>
+      <c r="H54" s="5">
+        <v>9027</v>
+      </c>
+      <c r="I54" t="s">
+        <v>16</v>
+      </c>
+      <c r="J54" s="3">
+        <f ca="1">SUMIF(WinterPass!C:D,'보상 측정'!H54,WinterPass!D:D)</f>
+        <v>8</v>
+      </c>
+      <c r="K54" s="3">
+        <f ca="1">SUMIF(WinterPass!E:F,'보상 측정'!H54,WinterPass!F:F)</f>
+        <v>40</v>
+      </c>
+      <c r="L54" s="3">
+        <f t="shared" ca="1" si="6"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="55" spans="7:12" x14ac:dyDescent="0.3">
+      <c r="G55" t="s">
+        <v>31</v>
+      </c>
+      <c r="H55" s="5">
+        <v>9017</v>
+      </c>
+      <c r="I55" t="s">
+        <v>17</v>
+      </c>
+      <c r="J55" s="3">
+        <f ca="1">SUMIF(WinterPass!C:D,'보상 측정'!H55,WinterPass!D:D)</f>
+        <v>8</v>
+      </c>
+      <c r="K55" s="3">
+        <f ca="1">SUMIF(WinterPass!E:F,'보상 측정'!H55,WinterPass!F:F)</f>
+        <v>40</v>
+      </c>
+      <c r="L55" s="3">
+        <f t="shared" ca="1" si="6"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="56" spans="7:12" x14ac:dyDescent="0.3">
+      <c r="G56" t="s">
+        <v>33</v>
+      </c>
+      <c r="H56" s="5">
+        <v>9023</v>
+      </c>
+      <c r="I56" t="s">
+        <v>18</v>
+      </c>
+      <c r="J56" s="3">
+        <f ca="1">SUMIF(WinterPass!C:D,'보상 측정'!H56,WinterPass!D:D)</f>
+        <v>12</v>
+      </c>
+      <c r="K56" s="3">
+        <f ca="1">SUMIF(WinterPass!E:F,'보상 측정'!H56,WinterPass!F:F)</f>
+        <v>60</v>
+      </c>
+      <c r="L56" s="3">
+        <f t="shared" ca="1" si="6"/>
+        <v>72</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="H48:J48"/>
     <mergeCell ref="H37:J37"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="I6:J6"/>

--- a/Assets/06.Table/WinterPass.xlsx
+++ b/Assets/06.Table/WinterPass.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E596ECD-9F53-4EEA-AA05-04C5037B02AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE942FF6-D9A3-4926-A7D8-9151528EF1BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="WinterPass" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="38">
   <si>
     <t>Id</t>
   </si>
@@ -169,6 +169,18 @@
   </si>
   <si>
     <t>새해맞이 훈련 소탕권 최종 지급량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>봄맞이 훈련 소탕권 최종 지급량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사신수 영약</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>태극 영약</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -649,8 +661,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -711,13 +723,13 @@
         <v>10000000</v>
       </c>
       <c r="C3" s="5">
-        <v>9038</v>
+        <v>9033</v>
       </c>
       <c r="D3" s="8">
         <v>2</v>
       </c>
       <c r="E3" s="5">
-        <v>9038</v>
+        <v>9033</v>
       </c>
       <c r="F3" s="8">
         <v>10</v>
@@ -731,16 +743,16 @@
         <v>15000000</v>
       </c>
       <c r="C4" s="5">
-        <v>9033</v>
+        <v>9028</v>
       </c>
       <c r="D4" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E4" s="5">
-        <v>9033</v>
+        <v>9028</v>
       </c>
       <c r="F4" s="8">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
@@ -751,16 +763,16 @@
         <v>20000000</v>
       </c>
       <c r="C5" s="5">
-        <v>9028</v>
+        <v>9027</v>
       </c>
       <c r="D5" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E5" s="5">
-        <v>9028</v>
+        <v>9027</v>
       </c>
       <c r="F5" s="8">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -771,13 +783,13 @@
         <v>25000000</v>
       </c>
       <c r="C6" s="5">
-        <v>9027</v>
+        <v>9017</v>
       </c>
       <c r="D6" s="8">
         <v>2</v>
       </c>
       <c r="E6" s="5">
-        <v>9027</v>
+        <v>9017</v>
       </c>
       <c r="F6" s="8">
         <v>10</v>
@@ -791,13 +803,13 @@
         <v>30000000</v>
       </c>
       <c r="C7" s="5">
-        <v>9017</v>
+        <v>9063</v>
       </c>
       <c r="D7" s="8">
         <v>2</v>
       </c>
       <c r="E7" s="5">
-        <v>9017</v>
+        <v>9063</v>
       </c>
       <c r="F7" s="8">
         <v>10</v>
@@ -811,16 +823,16 @@
         <v>35000000</v>
       </c>
       <c r="C8" s="5">
-        <v>9023</v>
+        <v>9050</v>
       </c>
       <c r="D8" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E8" s="5">
-        <v>9023</v>
+        <v>9050</v>
       </c>
       <c r="F8" s="8">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -851,13 +863,13 @@
         <v>45000000</v>
       </c>
       <c r="C10" s="5">
-        <v>9038</v>
+        <v>9033</v>
       </c>
       <c r="D10" s="8">
         <v>2</v>
       </c>
       <c r="E10" s="5">
-        <v>9038</v>
+        <v>9033</v>
       </c>
       <c r="F10" s="8">
         <v>10</v>
@@ -871,16 +883,16 @@
         <v>50000000</v>
       </c>
       <c r="C11" s="5">
-        <v>9033</v>
+        <v>9028</v>
       </c>
       <c r="D11" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E11" s="5">
-        <v>9033</v>
+        <v>9028</v>
       </c>
       <c r="F11" s="8">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -891,16 +903,16 @@
         <v>55000000</v>
       </c>
       <c r="C12" s="5">
-        <v>9028</v>
+        <v>9027</v>
       </c>
       <c r="D12" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E12" s="5">
-        <v>9028</v>
+        <v>9027</v>
       </c>
       <c r="F12" s="8">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -911,13 +923,13 @@
         <v>60000000</v>
       </c>
       <c r="C13" s="5">
-        <v>9027</v>
+        <v>9017</v>
       </c>
       <c r="D13" s="8">
         <v>2</v>
       </c>
       <c r="E13" s="5">
-        <v>9027</v>
+        <v>9017</v>
       </c>
       <c r="F13" s="8">
         <v>10</v>
@@ -931,13 +943,13 @@
         <v>65000000</v>
       </c>
       <c r="C14" s="5">
-        <v>9017</v>
+        <v>9063</v>
       </c>
       <c r="D14" s="8">
         <v>2</v>
       </c>
       <c r="E14" s="5">
-        <v>9017</v>
+        <v>9063</v>
       </c>
       <c r="F14" s="8">
         <v>10</v>
@@ -951,16 +963,16 @@
         <v>70000000</v>
       </c>
       <c r="C15" s="5">
-        <v>9023</v>
+        <v>9050</v>
       </c>
       <c r="D15" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E15" s="5">
-        <v>9023</v>
+        <v>9050</v>
       </c>
       <c r="F15" s="8">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -991,13 +1003,13 @@
         <v>80000000</v>
       </c>
       <c r="C17" s="5">
-        <v>9038</v>
+        <v>9033</v>
       </c>
       <c r="D17" s="8">
         <v>2</v>
       </c>
       <c r="E17" s="5">
-        <v>9038</v>
+        <v>9033</v>
       </c>
       <c r="F17" s="8">
         <v>10</v>
@@ -1011,16 +1023,16 @@
         <v>85000000</v>
       </c>
       <c r="C18" s="5">
-        <v>9033</v>
+        <v>9028</v>
       </c>
       <c r="D18" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E18" s="5">
-        <v>9033</v>
+        <v>9028</v>
       </c>
       <c r="F18" s="8">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -1031,16 +1043,16 @@
         <v>90000000</v>
       </c>
       <c r="C19" s="5">
-        <v>9028</v>
+        <v>9027</v>
       </c>
       <c r="D19" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E19" s="5">
-        <v>9028</v>
+        <v>9027</v>
       </c>
       <c r="F19" s="8">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -1051,13 +1063,13 @@
         <v>95000000</v>
       </c>
       <c r="C20" s="5">
-        <v>9027</v>
+        <v>9017</v>
       </c>
       <c r="D20" s="8">
         <v>2</v>
       </c>
       <c r="E20" s="5">
-        <v>9027</v>
+        <v>9017</v>
       </c>
       <c r="F20" s="8">
         <v>10</v>
@@ -1071,13 +1083,13 @@
         <v>100000000</v>
       </c>
       <c r="C21" s="5">
-        <v>9017</v>
+        <v>9063</v>
       </c>
       <c r="D21" s="8">
         <v>2</v>
       </c>
       <c r="E21" s="5">
-        <v>9017</v>
+        <v>9063</v>
       </c>
       <c r="F21" s="8">
         <v>10</v>
@@ -1091,16 +1103,16 @@
         <v>105000000</v>
       </c>
       <c r="C22" s="5">
-        <v>9023</v>
+        <v>9050</v>
       </c>
       <c r="D22" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E22" s="5">
-        <v>9023</v>
+        <v>9050</v>
       </c>
       <c r="F22" s="8">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -1131,13 +1143,13 @@
         <v>115000000</v>
       </c>
       <c r="C24" s="5">
-        <v>9038</v>
+        <v>9033</v>
       </c>
       <c r="D24" s="8">
         <v>2</v>
       </c>
       <c r="E24" s="5">
-        <v>9038</v>
+        <v>9033</v>
       </c>
       <c r="F24" s="8">
         <v>10</v>
@@ -1151,16 +1163,16 @@
         <v>120000000</v>
       </c>
       <c r="C25" s="5">
-        <v>9033</v>
+        <v>9028</v>
       </c>
       <c r="D25" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E25" s="5">
-        <v>9033</v>
+        <v>9028</v>
       </c>
       <c r="F25" s="8">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -1171,16 +1183,16 @@
         <v>125000000</v>
       </c>
       <c r="C26" s="5">
-        <v>9028</v>
+        <v>9027</v>
       </c>
       <c r="D26" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E26" s="5">
-        <v>9028</v>
+        <v>9027</v>
       </c>
       <c r="F26" s="8">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -1191,13 +1203,13 @@
         <v>130000000</v>
       </c>
       <c r="C27" s="5">
-        <v>9027</v>
+        <v>9017</v>
       </c>
       <c r="D27" s="8">
         <v>2</v>
       </c>
       <c r="E27" s="5">
-        <v>9027</v>
+        <v>9017</v>
       </c>
       <c r="F27" s="8">
         <v>10</v>
@@ -1211,13 +1223,13 @@
         <v>135000000</v>
       </c>
       <c r="C28" s="5">
-        <v>9017</v>
+        <v>9063</v>
       </c>
       <c r="D28" s="8">
         <v>2</v>
       </c>
       <c r="E28" s="5">
-        <v>9017</v>
+        <v>9063</v>
       </c>
       <c r="F28" s="8">
         <v>10</v>
@@ -1231,16 +1243,16 @@
         <v>140000000</v>
       </c>
       <c r="C29" s="5">
-        <v>9023</v>
+        <v>9050</v>
       </c>
       <c r="D29" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E29" s="5">
-        <v>9023</v>
+        <v>9050</v>
       </c>
       <c r="F29" s="8">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -1271,13 +1283,13 @@
         <v>150000000</v>
       </c>
       <c r="C31" s="5">
-        <v>9038</v>
+        <v>9033</v>
       </c>
       <c r="D31" s="8">
         <v>2</v>
       </c>
       <c r="E31" s="5">
-        <v>9038</v>
+        <v>9033</v>
       </c>
       <c r="F31" s="8">
         <v>10</v>
@@ -1292,10 +1304,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02110237-7B30-4837-87BA-FD176F5AB329}">
-  <dimension ref="A2:M56"/>
+  <dimension ref="A2:M71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="G51" sqref="G51"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="G62" sqref="G62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1303,7 +1315,7 @@
     <col min="2" max="2" width="17.875" customWidth="1"/>
     <col min="4" max="4" width="11.375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.25" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="9.625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.75" bestFit="1" customWidth="1"/>
   </cols>
@@ -1789,15 +1801,15 @@
       </c>
       <c r="J22" s="3">
         <f>SUMIF(WinterPass!C:C,'보상 측정'!H22,WinterPass!D:D)</f>
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="K22" s="3">
         <f>SUMIF(WinterPass!E:E,'보상 측정'!H22,WinterPass!F:F)</f>
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="L22" s="3">
         <f t="shared" si="3"/>
-        <v>72</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
@@ -1844,15 +1856,15 @@
       </c>
       <c r="J24" s="3">
         <f>SUMIF(WinterPass!C:C,'보상 측정'!H24,WinterPass!D:D)</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K24" s="3">
         <f>SUMIF(WinterPass!E:E,'보상 측정'!H24,WinterPass!F:F)</f>
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="L24" s="3">
         <f t="shared" si="3"/>
-        <v>48</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
@@ -1914,15 +1926,15 @@
       </c>
       <c r="J29" s="3">
         <f ca="1">SUMIF(WinterPass!C:D,'보상 측정'!H29,WinterPass!D:D)</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K29" s="3">
         <f ca="1">SUMIF(WinterPass!E:F,'보상 측정'!H29,WinterPass!F:F)</f>
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="L29" s="3">
         <f t="shared" ref="L29:L34" ca="1" si="4">J29+K29</f>
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
@@ -1937,15 +1949,15 @@
       </c>
       <c r="J30" s="3">
         <f ca="1">SUMIF(WinterPass!C:D,'보상 측정'!H30,WinterPass!D:D)</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K30" s="3">
         <f ca="1">SUMIF(WinterPass!E:F,'보상 측정'!H30,WinterPass!F:F)</f>
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="L30" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>48</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
@@ -2029,15 +2041,15 @@
       </c>
       <c r="J34" s="3">
         <f ca="1">SUMIF(WinterPass!C:D,'보상 측정'!H34,WinterPass!D:D)</f>
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="K34" s="3">
         <f ca="1">SUMIF(WinterPass!E:F,'보상 측정'!H34,WinterPass!F:F)</f>
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="L34" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>72</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="7:12" x14ac:dyDescent="0.3">
@@ -2099,15 +2111,15 @@
       </c>
       <c r="J40" s="3">
         <f ca="1">SUMIF(WinterPass!C:D,'보상 측정'!H40,WinterPass!D:D)</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K40" s="3">
         <f ca="1">SUMIF(WinterPass!E:F,'보상 측정'!H40,WinterPass!F:F)</f>
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="L40" s="3">
         <f t="shared" ref="L40:L45" ca="1" si="5">J40+K40</f>
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="7:12" x14ac:dyDescent="0.3">
@@ -2122,15 +2134,15 @@
       </c>
       <c r="J41" s="3">
         <f ca="1">SUMIF(WinterPass!C:D,'보상 측정'!H41,WinterPass!D:D)</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K41" s="3">
         <f ca="1">SUMIF(WinterPass!E:F,'보상 측정'!H41,WinterPass!F:F)</f>
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="L41" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>48</v>
+        <v>60</v>
       </c>
     </row>
     <row r="42" spans="7:12" x14ac:dyDescent="0.3">
@@ -2214,15 +2226,15 @@
       </c>
       <c r="J45" s="3">
         <f ca="1">SUMIF(WinterPass!C:D,'보상 측정'!H45,WinterPass!D:D)</f>
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="K45" s="3">
         <f ca="1">SUMIF(WinterPass!E:F,'보상 측정'!H45,WinterPass!F:F)</f>
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="L45" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>72</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="7:12" x14ac:dyDescent="0.3">
@@ -2284,15 +2296,15 @@
       </c>
       <c r="J51" s="3">
         <f ca="1">SUMIF(WinterPass!C:D,'보상 측정'!H51,WinterPass!D:D)</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K51" s="3">
         <f ca="1">SUMIF(WinterPass!E:F,'보상 측정'!H51,WinterPass!F:F)</f>
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="L51" s="3">
         <f t="shared" ref="L51:L56" ca="1" si="6">J51+K51</f>
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="7:12" x14ac:dyDescent="0.3">
@@ -2307,15 +2319,15 @@
       </c>
       <c r="J52" s="3">
         <f ca="1">SUMIF(WinterPass!C:D,'보상 측정'!H52,WinterPass!D:D)</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K52" s="3">
         <f ca="1">SUMIF(WinterPass!E:F,'보상 측정'!H52,WinterPass!F:F)</f>
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="L52" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>48</v>
+        <v>60</v>
       </c>
     </row>
     <row r="53" spans="7:12" x14ac:dyDescent="0.3">
@@ -2399,19 +2411,226 @@
       </c>
       <c r="J56" s="3">
         <f ca="1">SUMIF(WinterPass!C:D,'보상 측정'!H56,WinterPass!D:D)</f>
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="K56" s="3">
         <f ca="1">SUMIF(WinterPass!E:F,'보상 측정'!H56,WinterPass!F:F)</f>
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="L56" s="3">
         <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="7:12" x14ac:dyDescent="0.3">
+      <c r="H59" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I59" s="10"/>
+      <c r="J59" s="10"/>
+    </row>
+    <row r="60" spans="7:12" x14ac:dyDescent="0.3">
+      <c r="H60" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I60" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="J60" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="K60" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L60" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="61" spans="7:12" x14ac:dyDescent="0.3">
+      <c r="G61" t="s">
+        <v>31</v>
+      </c>
+      <c r="H61" s="5">
+        <v>9044</v>
+      </c>
+      <c r="I61" t="s">
+        <v>29</v>
+      </c>
+      <c r="J61" s="3">
+        <f ca="1">SUMIF(WinterPass!C:D,'보상 측정'!H61,WinterPass!D:D)</f>
+        <v>10</v>
+      </c>
+      <c r="K61" s="3">
+        <f ca="1">SUMIF(WinterPass!E:F,'보상 측정'!H61,WinterPass!F:F)</f>
+        <v>50</v>
+      </c>
+      <c r="L61" s="3">
+        <f ca="1">J61+K61</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="7:12" x14ac:dyDescent="0.3">
+      <c r="G62" t="s">
+        <v>31</v>
+      </c>
+      <c r="H62" s="5">
+        <v>9033</v>
+      </c>
+      <c r="I62" t="s">
+        <v>26</v>
+      </c>
+      <c r="J62" s="3">
+        <f ca="1">SUMIF(WinterPass!C:D,'보상 측정'!H62,WinterPass!D:D)</f>
+        <v>10</v>
+      </c>
+      <c r="K62" s="3">
+        <f ca="1">SUMIF(WinterPass!E:F,'보상 측정'!H62,WinterPass!F:F)</f>
+        <v>50</v>
+      </c>
+      <c r="L62" s="3">
+        <f t="shared" ref="L62:L67" ca="1" si="7">J62+K62</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="63" spans="7:12" x14ac:dyDescent="0.3">
+      <c r="G63" t="s">
+        <v>33</v>
+      </c>
+      <c r="H63" s="5">
+        <v>9028</v>
+      </c>
+      <c r="I63" t="s">
+        <v>15</v>
+      </c>
+      <c r="J63" s="3">
+        <f ca="1">SUMIF(WinterPass!C:D,'보상 측정'!H63,WinterPass!D:D)</f>
+        <v>12</v>
+      </c>
+      <c r="K63" s="3">
+        <f ca="1">SUMIF(WinterPass!E:F,'보상 측정'!H63,WinterPass!F:F)</f>
+        <v>60</v>
+      </c>
+      <c r="L63" s="3">
+        <f t="shared" ca="1" si="7"/>
         <v>72</v>
       </c>
     </row>
+    <row r="64" spans="7:12" x14ac:dyDescent="0.3">
+      <c r="G64" t="s">
+        <v>31</v>
+      </c>
+      <c r="H64" s="5">
+        <v>9027</v>
+      </c>
+      <c r="I64" t="s">
+        <v>16</v>
+      </c>
+      <c r="J64" s="3">
+        <f ca="1">SUMIF(WinterPass!C:D,'보상 측정'!H64,WinterPass!D:D)</f>
+        <v>8</v>
+      </c>
+      <c r="K64" s="3">
+        <f ca="1">SUMIF(WinterPass!E:F,'보상 측정'!H64,WinterPass!F:F)</f>
+        <v>40</v>
+      </c>
+      <c r="L64" s="3">
+        <f t="shared" ca="1" si="7"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="65" spans="7:12" x14ac:dyDescent="0.3">
+      <c r="G65" t="s">
+        <v>31</v>
+      </c>
+      <c r="H65" s="5">
+        <v>9017</v>
+      </c>
+      <c r="I65" t="s">
+        <v>17</v>
+      </c>
+      <c r="J65" s="3">
+        <f ca="1">SUMIF(WinterPass!C:D,'보상 측정'!H65,WinterPass!D:D)</f>
+        <v>8</v>
+      </c>
+      <c r="K65" s="3">
+        <f ca="1">SUMIF(WinterPass!E:F,'보상 측정'!H65,WinterPass!F:F)</f>
+        <v>40</v>
+      </c>
+      <c r="L65" s="3">
+        <f t="shared" ca="1" si="7"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="66" spans="7:12" x14ac:dyDescent="0.3">
+      <c r="G66" t="s">
+        <v>31</v>
+      </c>
+      <c r="H66" s="5">
+        <v>9063</v>
+      </c>
+      <c r="I66" t="s">
+        <v>36</v>
+      </c>
+      <c r="J66" s="3">
+        <f ca="1">SUMIF(WinterPass!C:D,'보상 측정'!H66,WinterPass!D:D)</f>
+        <v>8</v>
+      </c>
+      <c r="K66" s="3">
+        <f ca="1">SUMIF(WinterPass!E:F,'보상 측정'!H66,WinterPass!F:F)</f>
+        <v>40</v>
+      </c>
+      <c r="L66" s="3">
+        <f t="shared" ca="1" si="7"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="67" spans="7:12" x14ac:dyDescent="0.3">
+      <c r="G67" t="s">
+        <v>31</v>
+      </c>
+      <c r="H67" s="5">
+        <v>9050</v>
+      </c>
+      <c r="I67" t="s">
+        <v>37</v>
+      </c>
+      <c r="J67" s="3">
+        <f ca="1">SUMIF(WinterPass!C:D,'보상 측정'!H67,WinterPass!D:D)</f>
+        <v>8</v>
+      </c>
+      <c r="K67" s="3">
+        <f ca="1">SUMIF(WinterPass!E:F,'보상 측정'!H67,WinterPass!F:F)</f>
+        <v>40</v>
+      </c>
+      <c r="L67" s="3">
+        <f t="shared" ca="1" si="7"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="68" spans="7:12" x14ac:dyDescent="0.3">
+      <c r="H68" s="5"/>
+      <c r="J68" s="3"/>
+      <c r="K68" s="3"/>
+      <c r="L68" s="3"/>
+    </row>
+    <row r="69" spans="7:12" x14ac:dyDescent="0.3">
+      <c r="H69" s="5"/>
+      <c r="J69" s="3"/>
+      <c r="K69" s="3"/>
+      <c r="L69" s="3"/>
+    </row>
+    <row r="70" spans="7:12" x14ac:dyDescent="0.3">
+      <c r="H70" s="5"/>
+      <c r="J70" s="3"/>
+      <c r="K70" s="3"/>
+      <c r="L70" s="3"/>
+    </row>
+    <row r="71" spans="7:12" x14ac:dyDescent="0.3">
+      <c r="H71" s="5"/>
+    </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="H59:J59"/>
     <mergeCell ref="H48:J48"/>
     <mergeCell ref="H37:J37"/>
     <mergeCell ref="B6:C6"/>

--- a/Assets/06.Table/WinterPass.xlsx
+++ b/Assets/06.Table/WinterPass.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE942FF6-D9A3-4926-A7D8-9151528EF1BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9456A787-23A7-4020-AB30-7EEE3E06BE6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="41">
   <si>
     <t>Id</t>
   </si>
@@ -181,6 +181,18 @@
   </si>
   <si>
     <t>태극 영약</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검은 구미호 구슬 소탕권</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수련의 방 입장권</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비무 대회 입장권</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -363,9 +375,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -403,7 +415,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -509,7 +521,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -651,7 +663,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -662,7 +674,7 @@
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -703,16 +715,16 @@
         <v>5000000</v>
       </c>
       <c r="C2" s="5">
-        <v>9044</v>
+        <v>9028</v>
       </c>
       <c r="D2" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E2" s="5">
-        <v>9044</v>
+        <v>9028</v>
       </c>
       <c r="F2" s="8">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
@@ -723,13 +735,13 @@
         <v>10000000</v>
       </c>
       <c r="C3" s="5">
-        <v>9033</v>
+        <v>9044</v>
       </c>
       <c r="D3" s="8">
         <v>2</v>
       </c>
       <c r="E3" s="5">
-        <v>9033</v>
+        <v>9044</v>
       </c>
       <c r="F3" s="8">
         <v>10</v>
@@ -743,16 +755,16 @@
         <v>15000000</v>
       </c>
       <c r="C4" s="5">
-        <v>9028</v>
+        <v>9050</v>
       </c>
       <c r="D4" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E4" s="5">
-        <v>9028</v>
+        <v>9050</v>
       </c>
       <c r="F4" s="8">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
@@ -763,13 +775,13 @@
         <v>20000000</v>
       </c>
       <c r="C5" s="5">
-        <v>9027</v>
+        <v>9053</v>
       </c>
       <c r="D5" s="8">
         <v>2</v>
       </c>
       <c r="E5" s="5">
-        <v>9027</v>
+        <v>9053</v>
       </c>
       <c r="F5" s="8">
         <v>10</v>
@@ -783,13 +795,13 @@
         <v>25000000</v>
       </c>
       <c r="C6" s="5">
-        <v>9017</v>
+        <v>9055</v>
       </c>
       <c r="D6" s="8">
         <v>2</v>
       </c>
       <c r="E6" s="5">
-        <v>9017</v>
+        <v>9055</v>
       </c>
       <c r="F6" s="8">
         <v>10</v>
@@ -823,16 +835,16 @@
         <v>35000000</v>
       </c>
       <c r="C8" s="5">
-        <v>9050</v>
+        <v>9057</v>
       </c>
       <c r="D8" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E8" s="5">
-        <v>9050</v>
+        <v>9057</v>
       </c>
       <c r="F8" s="8">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -843,16 +855,16 @@
         <v>40000000</v>
       </c>
       <c r="C9" s="5">
-        <v>9044</v>
+        <v>9028</v>
       </c>
       <c r="D9" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E9" s="5">
-        <v>9044</v>
+        <v>9028</v>
       </c>
       <c r="F9" s="8">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -863,13 +875,13 @@
         <v>45000000</v>
       </c>
       <c r="C10" s="5">
-        <v>9033</v>
+        <v>9044</v>
       </c>
       <c r="D10" s="8">
         <v>2</v>
       </c>
       <c r="E10" s="5">
-        <v>9033</v>
+        <v>9044</v>
       </c>
       <c r="F10" s="8">
         <v>10</v>
@@ -883,16 +895,16 @@
         <v>50000000</v>
       </c>
       <c r="C11" s="5">
-        <v>9028</v>
+        <v>9050</v>
       </c>
       <c r="D11" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E11" s="5">
-        <v>9028</v>
+        <v>9050</v>
       </c>
       <c r="F11" s="8">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -903,13 +915,13 @@
         <v>55000000</v>
       </c>
       <c r="C12" s="5">
-        <v>9027</v>
+        <v>9053</v>
       </c>
       <c r="D12" s="8">
         <v>2</v>
       </c>
       <c r="E12" s="5">
-        <v>9027</v>
+        <v>9053</v>
       </c>
       <c r="F12" s="8">
         <v>10</v>
@@ -923,13 +935,13 @@
         <v>60000000</v>
       </c>
       <c r="C13" s="5">
-        <v>9017</v>
+        <v>9055</v>
       </c>
       <c r="D13" s="8">
         <v>2</v>
       </c>
       <c r="E13" s="5">
-        <v>9017</v>
+        <v>9055</v>
       </c>
       <c r="F13" s="8">
         <v>10</v>
@@ -963,16 +975,16 @@
         <v>70000000</v>
       </c>
       <c r="C15" s="5">
-        <v>9050</v>
+        <v>9057</v>
       </c>
       <c r="D15" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E15" s="5">
-        <v>9050</v>
+        <v>9057</v>
       </c>
       <c r="F15" s="8">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -983,16 +995,16 @@
         <v>75000000</v>
       </c>
       <c r="C16" s="5">
-        <v>9044</v>
+        <v>9028</v>
       </c>
       <c r="D16" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E16" s="5">
-        <v>9044</v>
+        <v>9028</v>
       </c>
       <c r="F16" s="8">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -1003,13 +1015,13 @@
         <v>80000000</v>
       </c>
       <c r="C17" s="5">
-        <v>9033</v>
+        <v>9044</v>
       </c>
       <c r="D17" s="8">
         <v>2</v>
       </c>
       <c r="E17" s="5">
-        <v>9033</v>
+        <v>9044</v>
       </c>
       <c r="F17" s="8">
         <v>10</v>
@@ -1023,16 +1035,16 @@
         <v>85000000</v>
       </c>
       <c r="C18" s="5">
-        <v>9028</v>
+        <v>9050</v>
       </c>
       <c r="D18" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E18" s="5">
-        <v>9028</v>
+        <v>9050</v>
       </c>
       <c r="F18" s="8">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -1043,13 +1055,13 @@
         <v>90000000</v>
       </c>
       <c r="C19" s="5">
-        <v>9027</v>
+        <v>9053</v>
       </c>
       <c r="D19" s="8">
         <v>2</v>
       </c>
       <c r="E19" s="5">
-        <v>9027</v>
+        <v>9053</v>
       </c>
       <c r="F19" s="8">
         <v>10</v>
@@ -1063,13 +1075,13 @@
         <v>95000000</v>
       </c>
       <c r="C20" s="5">
-        <v>9017</v>
+        <v>9055</v>
       </c>
       <c r="D20" s="8">
         <v>2</v>
       </c>
       <c r="E20" s="5">
-        <v>9017</v>
+        <v>9055</v>
       </c>
       <c r="F20" s="8">
         <v>10</v>
@@ -1103,16 +1115,16 @@
         <v>105000000</v>
       </c>
       <c r="C22" s="5">
-        <v>9050</v>
+        <v>9057</v>
       </c>
       <c r="D22" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E22" s="5">
-        <v>9050</v>
+        <v>9057</v>
       </c>
       <c r="F22" s="8">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -1123,16 +1135,16 @@
         <v>110000000</v>
       </c>
       <c r="C23" s="5">
-        <v>9044</v>
+        <v>9028</v>
       </c>
       <c r="D23" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E23" s="5">
-        <v>9044</v>
+        <v>9028</v>
       </c>
       <c r="F23" s="8">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -1143,13 +1155,13 @@
         <v>115000000</v>
       </c>
       <c r="C24" s="5">
-        <v>9033</v>
+        <v>9044</v>
       </c>
       <c r="D24" s="8">
         <v>2</v>
       </c>
       <c r="E24" s="5">
-        <v>9033</v>
+        <v>9044</v>
       </c>
       <c r="F24" s="8">
         <v>10</v>
@@ -1163,16 +1175,16 @@
         <v>120000000</v>
       </c>
       <c r="C25" s="5">
-        <v>9028</v>
+        <v>9050</v>
       </c>
       <c r="D25" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E25" s="5">
-        <v>9028</v>
+        <v>9050</v>
       </c>
       <c r="F25" s="8">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -1183,13 +1195,13 @@
         <v>125000000</v>
       </c>
       <c r="C26" s="5">
-        <v>9027</v>
+        <v>9053</v>
       </c>
       <c r="D26" s="8">
         <v>2</v>
       </c>
       <c r="E26" s="5">
-        <v>9027</v>
+        <v>9053</v>
       </c>
       <c r="F26" s="8">
         <v>10</v>
@@ -1203,13 +1215,13 @@
         <v>130000000</v>
       </c>
       <c r="C27" s="5">
-        <v>9017</v>
+        <v>9055</v>
       </c>
       <c r="D27" s="8">
         <v>2</v>
       </c>
       <c r="E27" s="5">
-        <v>9017</v>
+        <v>9055</v>
       </c>
       <c r="F27" s="8">
         <v>10</v>
@@ -1243,16 +1255,16 @@
         <v>140000000</v>
       </c>
       <c r="C29" s="5">
-        <v>9050</v>
+        <v>9057</v>
       </c>
       <c r="D29" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E29" s="5">
-        <v>9050</v>
+        <v>9057</v>
       </c>
       <c r="F29" s="8">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -1263,16 +1275,16 @@
         <v>145000000</v>
       </c>
       <c r="C30" s="5">
-        <v>9044</v>
+        <v>9028</v>
       </c>
       <c r="D30" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E30" s="5">
-        <v>9044</v>
+        <v>9028</v>
       </c>
       <c r="F30" s="8">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -1283,13 +1295,13 @@
         <v>150000000</v>
       </c>
       <c r="C31" s="5">
-        <v>9033</v>
+        <v>9044</v>
       </c>
       <c r="D31" s="8">
         <v>2</v>
       </c>
       <c r="E31" s="5">
-        <v>9033</v>
+        <v>9044</v>
       </c>
       <c r="F31" s="8">
         <v>10</v>
@@ -1304,10 +1316,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02110237-7B30-4837-87BA-FD176F5AB329}">
-  <dimension ref="A2:M71"/>
+  <dimension ref="A2:M78"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="G62" sqref="G62"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="L74" sqref="L74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1690,15 +1702,15 @@
       </c>
       <c r="J19" s="3">
         <f>SUMIF(WinterPass!C:C,'보상 측정'!H19,WinterPass!D:D)</f>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="K19" s="3">
         <f>SUMIF(WinterPass!E:E,'보상 측정'!H19,WinterPass!F:F)</f>
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="L19" s="3">
         <f>J19+K19</f>
-        <v>72</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
@@ -1728,15 +1740,15 @@
       </c>
       <c r="J20" s="3">
         <f>SUMIF(WinterPass!C:C,'보상 측정'!H20,WinterPass!D:D)</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="K20" s="3">
         <f>SUMIF(WinterPass!E:E,'보상 측정'!H20,WinterPass!F:F)</f>
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="L20" s="3">
         <f t="shared" ref="L20:L24" si="3">J20+K20</f>
-        <v>48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
@@ -1766,15 +1778,15 @@
       </c>
       <c r="J21" s="3">
         <f>SUMIF(WinterPass!C:C,'보상 측정'!H21,WinterPass!D:D)</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="K21" s="3">
         <f>SUMIF(WinterPass!E:E,'보상 측정'!H21,WinterPass!F:F)</f>
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="L21" s="3">
         <f t="shared" si="3"/>
-        <v>48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
@@ -1856,15 +1868,15 @@
       </c>
       <c r="J24" s="3">
         <f>SUMIF(WinterPass!C:C,'보상 측정'!H24,WinterPass!D:D)</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K24" s="3">
         <f>SUMIF(WinterPass!E:E,'보상 측정'!H24,WinterPass!F:F)</f>
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="L24" s="3">
         <f t="shared" si="3"/>
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
@@ -1949,15 +1961,15 @@
       </c>
       <c r="J30" s="3">
         <f ca="1">SUMIF(WinterPass!C:D,'보상 측정'!H30,WinterPass!D:D)</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K30" s="3">
         <f ca="1">SUMIF(WinterPass!E:F,'보상 측정'!H30,WinterPass!F:F)</f>
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="L30" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
@@ -1972,15 +1984,15 @@
       </c>
       <c r="J31" s="3">
         <f ca="1">SUMIF(WinterPass!C:D,'보상 측정'!H31,WinterPass!D:D)</f>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="K31" s="3">
         <f ca="1">SUMIF(WinterPass!E:F,'보상 측정'!H31,WinterPass!F:F)</f>
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="L31" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>72</v>
+        <v>90</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
@@ -1995,15 +2007,15 @@
       </c>
       <c r="J32" s="3">
         <f ca="1">SUMIF(WinterPass!C:D,'보상 측정'!H32,WinterPass!D:D)</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="K32" s="3">
         <f ca="1">SUMIF(WinterPass!E:F,'보상 측정'!H32,WinterPass!F:F)</f>
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="L32" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="7:12" x14ac:dyDescent="0.3">
@@ -2018,15 +2030,15 @@
       </c>
       <c r="J33" s="3">
         <f ca="1">SUMIF(WinterPass!C:D,'보상 측정'!H33,WinterPass!D:D)</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="K33" s="3">
         <f ca="1">SUMIF(WinterPass!E:F,'보상 측정'!H33,WinterPass!F:F)</f>
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="L33" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="7:12" x14ac:dyDescent="0.3">
@@ -2134,15 +2146,15 @@
       </c>
       <c r="J41" s="3">
         <f ca="1">SUMIF(WinterPass!C:D,'보상 측정'!H41,WinterPass!D:D)</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K41" s="3">
         <f ca="1">SUMIF(WinterPass!E:F,'보상 측정'!H41,WinterPass!F:F)</f>
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="L41" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="7:12" x14ac:dyDescent="0.3">
@@ -2157,15 +2169,15 @@
       </c>
       <c r="J42" s="3">
         <f ca="1">SUMIF(WinterPass!C:D,'보상 측정'!H42,WinterPass!D:D)</f>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="K42" s="3">
         <f ca="1">SUMIF(WinterPass!E:F,'보상 측정'!H42,WinterPass!F:F)</f>
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="L42" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>72</v>
+        <v>90</v>
       </c>
     </row>
     <row r="43" spans="7:12" x14ac:dyDescent="0.3">
@@ -2180,15 +2192,15 @@
       </c>
       <c r="J43" s="3">
         <f ca="1">SUMIF(WinterPass!C:D,'보상 측정'!H43,WinterPass!D:D)</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="K43" s="3">
         <f ca="1">SUMIF(WinterPass!E:F,'보상 측정'!H43,WinterPass!F:F)</f>
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="L43" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="7:12" x14ac:dyDescent="0.3">
@@ -2203,15 +2215,15 @@
       </c>
       <c r="J44" s="3">
         <f ca="1">SUMIF(WinterPass!C:D,'보상 측정'!H44,WinterPass!D:D)</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="K44" s="3">
         <f ca="1">SUMIF(WinterPass!E:F,'보상 측정'!H44,WinterPass!F:F)</f>
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="L44" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="7:12" x14ac:dyDescent="0.3">
@@ -2319,15 +2331,15 @@
       </c>
       <c r="J52" s="3">
         <f ca="1">SUMIF(WinterPass!C:D,'보상 측정'!H52,WinterPass!D:D)</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K52" s="3">
         <f ca="1">SUMIF(WinterPass!E:F,'보상 측정'!H52,WinterPass!F:F)</f>
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="L52" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="7:12" x14ac:dyDescent="0.3">
@@ -2342,15 +2354,15 @@
       </c>
       <c r="J53" s="3">
         <f ca="1">SUMIF(WinterPass!C:D,'보상 측정'!H53,WinterPass!D:D)</f>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="K53" s="3">
         <f ca="1">SUMIF(WinterPass!E:F,'보상 측정'!H53,WinterPass!F:F)</f>
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="L53" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>72</v>
+        <v>90</v>
       </c>
     </row>
     <row r="54" spans="7:12" x14ac:dyDescent="0.3">
@@ -2365,15 +2377,15 @@
       </c>
       <c r="J54" s="3">
         <f ca="1">SUMIF(WinterPass!C:D,'보상 측정'!H54,WinterPass!D:D)</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="K54" s="3">
         <f ca="1">SUMIF(WinterPass!E:F,'보상 측정'!H54,WinterPass!F:F)</f>
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="L54" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="7:12" x14ac:dyDescent="0.3">
@@ -2388,15 +2400,15 @@
       </c>
       <c r="J55" s="3">
         <f ca="1">SUMIF(WinterPass!C:D,'보상 측정'!H55,WinterPass!D:D)</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="K55" s="3">
         <f ca="1">SUMIF(WinterPass!E:F,'보상 측정'!H55,WinterPass!F:F)</f>
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="L55" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="7:12" x14ac:dyDescent="0.3">
@@ -2481,15 +2493,15 @@
       </c>
       <c r="J62" s="3">
         <f ca="1">SUMIF(WinterPass!C:D,'보상 측정'!H62,WinterPass!D:D)</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K62" s="3">
         <f ca="1">SUMIF(WinterPass!E:F,'보상 측정'!H62,WinterPass!F:F)</f>
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="L62" s="3">
         <f t="shared" ref="L62:L67" ca="1" si="7">J62+K62</f>
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="7:12" x14ac:dyDescent="0.3">
@@ -2504,15 +2516,15 @@
       </c>
       <c r="J63" s="3">
         <f ca="1">SUMIF(WinterPass!C:D,'보상 측정'!H63,WinterPass!D:D)</f>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="K63" s="3">
         <f ca="1">SUMIF(WinterPass!E:F,'보상 측정'!H63,WinterPass!F:F)</f>
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="L63" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>72</v>
+        <v>90</v>
       </c>
     </row>
     <row r="64" spans="7:12" x14ac:dyDescent="0.3">
@@ -2527,15 +2539,15 @@
       </c>
       <c r="J64" s="3">
         <f ca="1">SUMIF(WinterPass!C:D,'보상 측정'!H64,WinterPass!D:D)</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="K64" s="3">
         <f ca="1">SUMIF(WinterPass!E:F,'보상 측정'!H64,WinterPass!F:F)</f>
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="L64" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="7:12" x14ac:dyDescent="0.3">
@@ -2550,15 +2562,15 @@
       </c>
       <c r="J65" s="3">
         <f ca="1">SUMIF(WinterPass!C:D,'보상 측정'!H65,WinterPass!D:D)</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="K65" s="3">
         <f ca="1">SUMIF(WinterPass!E:F,'보상 측정'!H65,WinterPass!F:F)</f>
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="L65" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="7:12" x14ac:dyDescent="0.3">
@@ -2620,16 +2632,193 @@
       <c r="L69" s="3"/>
     </row>
     <row r="70" spans="7:12" x14ac:dyDescent="0.3">
-      <c r="H70" s="5"/>
-      <c r="J70" s="3"/>
-      <c r="K70" s="3"/>
-      <c r="L70" s="3"/>
+      <c r="H70" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I70" s="10"/>
+      <c r="J70" s="10"/>
     </row>
     <row r="71" spans="7:12" x14ac:dyDescent="0.3">
-      <c r="H71" s="5"/>
+      <c r="H71" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I71" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="J71" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="K71" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L71" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="72" spans="7:12" x14ac:dyDescent="0.3">
+      <c r="G72" t="s">
+        <v>33</v>
+      </c>
+      <c r="H72" s="5">
+        <v>9028</v>
+      </c>
+      <c r="I72" t="s">
+        <v>15</v>
+      </c>
+      <c r="J72" s="3">
+        <f ca="1">SUMIF(WinterPass!C:D,'보상 측정'!H72,WinterPass!D:D)</f>
+        <v>15</v>
+      </c>
+      <c r="K72" s="3">
+        <f ca="1">SUMIF(WinterPass!E:F,'보상 측정'!H72,WinterPass!F:F)</f>
+        <v>75</v>
+      </c>
+      <c r="L72" s="3">
+        <f ca="1">J72+K72</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="73" spans="7:12" x14ac:dyDescent="0.3">
+      <c r="G73" t="s">
+        <v>31</v>
+      </c>
+      <c r="H73" s="5">
+        <v>9044</v>
+      </c>
+      <c r="I73" t="s">
+        <v>29</v>
+      </c>
+      <c r="J73" s="3">
+        <f ca="1">SUMIF(WinterPass!C:D,'보상 측정'!H73,WinterPass!D:D)</f>
+        <v>10</v>
+      </c>
+      <c r="K73" s="3">
+        <f ca="1">SUMIF(WinterPass!E:F,'보상 측정'!H73,WinterPass!F:F)</f>
+        <v>50</v>
+      </c>
+      <c r="L73" s="3">
+        <f t="shared" ref="L73:L78" ca="1" si="8">J73+K73</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="74" spans="7:12" x14ac:dyDescent="0.3">
+      <c r="G74" t="s">
+        <v>31</v>
+      </c>
+      <c r="H74" s="5">
+        <v>9050</v>
+      </c>
+      <c r="I74" t="s">
+        <v>37</v>
+      </c>
+      <c r="J74" s="3">
+        <f ca="1">SUMIF(WinterPass!C:D,'보상 측정'!H74,WinterPass!D:D)</f>
+        <v>8</v>
+      </c>
+      <c r="K74" s="3">
+        <f ca="1">SUMIF(WinterPass!E:F,'보상 측정'!H74,WinterPass!F:F)</f>
+        <v>40</v>
+      </c>
+      <c r="L74" s="3">
+        <f t="shared" ca="1" si="8"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="75" spans="7:12" x14ac:dyDescent="0.3">
+      <c r="G75" t="s">
+        <v>31</v>
+      </c>
+      <c r="H75" s="5">
+        <v>9053</v>
+      </c>
+      <c r="I75" t="s">
+        <v>38</v>
+      </c>
+      <c r="J75" s="3">
+        <f ca="1">SUMIF(WinterPass!C:D,'보상 측정'!H75,WinterPass!D:D)</f>
+        <v>8</v>
+      </c>
+      <c r="K75" s="3">
+        <f ca="1">SUMIF(WinterPass!E:F,'보상 측정'!H75,WinterPass!F:F)</f>
+        <v>40</v>
+      </c>
+      <c r="L75" s="3">
+        <f t="shared" ca="1" si="8"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="76" spans="7:12" x14ac:dyDescent="0.3">
+      <c r="G76" t="s">
+        <v>31</v>
+      </c>
+      <c r="H76" s="5">
+        <v>9055</v>
+      </c>
+      <c r="I76" t="s">
+        <v>39</v>
+      </c>
+      <c r="J76" s="3">
+        <f ca="1">SUMIF(WinterPass!C:D,'보상 측정'!H76,WinterPass!D:D)</f>
+        <v>8</v>
+      </c>
+      <c r="K76" s="3">
+        <f ca="1">SUMIF(WinterPass!E:F,'보상 측정'!H76,WinterPass!F:F)</f>
+        <v>40</v>
+      </c>
+      <c r="L76" s="3">
+        <f t="shared" ca="1" si="8"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="77" spans="7:12" x14ac:dyDescent="0.3">
+      <c r="G77" t="s">
+        <v>31</v>
+      </c>
+      <c r="H77" s="5">
+        <v>9063</v>
+      </c>
+      <c r="I77" t="s">
+        <v>36</v>
+      </c>
+      <c r="J77" s="3">
+        <f ca="1">SUMIF(WinterPass!C:D,'보상 측정'!H77,WinterPass!D:D)</f>
+        <v>8</v>
+      </c>
+      <c r="K77" s="3">
+        <f ca="1">SUMIF(WinterPass!E:F,'보상 측정'!H77,WinterPass!F:F)</f>
+        <v>40</v>
+      </c>
+      <c r="L77" s="3">
+        <f t="shared" ca="1" si="8"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="78" spans="7:12" x14ac:dyDescent="0.3">
+      <c r="G78" t="s">
+        <v>28</v>
+      </c>
+      <c r="H78" s="5">
+        <v>9057</v>
+      </c>
+      <c r="I78" t="s">
+        <v>40</v>
+      </c>
+      <c r="J78" s="3">
+        <f ca="1">SUMIF(WinterPass!C:D,'보상 측정'!H78,WinterPass!D:D)</f>
+        <v>4</v>
+      </c>
+      <c r="K78" s="3">
+        <f ca="1">SUMIF(WinterPass!E:F,'보상 측정'!H78,WinterPass!F:F)</f>
+        <v>20</v>
+      </c>
+      <c r="L78" s="3">
+        <f t="shared" ca="1" si="8"/>
+        <v>24</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="H70:J70"/>
     <mergeCell ref="H59:J59"/>
     <mergeCell ref="H48:J48"/>
     <mergeCell ref="H37:J37"/>

--- a/Assets/06.Table/WinterPass.xlsx
+++ b/Assets/06.Table/WinterPass.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9456A787-23A7-4020-AB30-7EEE3E06BE6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B41EBF19-45B1-4DF7-B966-C8C24629D803}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="43">
   <si>
     <t>Id</t>
   </si>
@@ -193,6 +193,14 @@
   </si>
   <si>
     <t>비무 대회 입장권</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여름대비 훈련 소탕권 최종 지급량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,20</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -674,7 +682,7 @@
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -718,13 +726,13 @@
         <v>9028</v>
       </c>
       <c r="D2" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E2" s="5">
         <v>9028</v>
       </c>
       <c r="F2" s="8">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
@@ -738,13 +746,13 @@
         <v>9044</v>
       </c>
       <c r="D3" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E3" s="5">
         <v>9044</v>
       </c>
       <c r="F3" s="8">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
@@ -758,13 +766,13 @@
         <v>9050</v>
       </c>
       <c r="D4" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E4" s="5">
         <v>9050</v>
       </c>
       <c r="F4" s="8">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
@@ -778,13 +786,13 @@
         <v>9053</v>
       </c>
       <c r="D5" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E5" s="5">
         <v>9053</v>
       </c>
       <c r="F5" s="8">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -798,13 +806,13 @@
         <v>9055</v>
       </c>
       <c r="D6" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E6" s="5">
         <v>9055</v>
       </c>
       <c r="F6" s="8">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
@@ -818,13 +826,13 @@
         <v>9063</v>
       </c>
       <c r="D7" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E7" s="5">
         <v>9063</v>
       </c>
       <c r="F7" s="8">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -858,13 +866,13 @@
         <v>9028</v>
       </c>
       <c r="D9" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E9" s="5">
         <v>9028</v>
       </c>
       <c r="F9" s="8">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -878,13 +886,13 @@
         <v>9044</v>
       </c>
       <c r="D10" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E10" s="5">
         <v>9044</v>
       </c>
       <c r="F10" s="8">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -898,13 +906,13 @@
         <v>9050</v>
       </c>
       <c r="D11" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E11" s="5">
         <v>9050</v>
       </c>
       <c r="F11" s="8">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -918,13 +926,13 @@
         <v>9053</v>
       </c>
       <c r="D12" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E12" s="5">
         <v>9053</v>
       </c>
       <c r="F12" s="8">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -938,13 +946,13 @@
         <v>9055</v>
       </c>
       <c r="D13" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E13" s="5">
         <v>9055</v>
       </c>
       <c r="F13" s="8">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -958,13 +966,13 @@
         <v>9063</v>
       </c>
       <c r="D14" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E14" s="5">
         <v>9063</v>
       </c>
       <c r="F14" s="8">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -998,13 +1006,13 @@
         <v>9028</v>
       </c>
       <c r="D16" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E16" s="5">
         <v>9028</v>
       </c>
       <c r="F16" s="8">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -1018,13 +1026,13 @@
         <v>9044</v>
       </c>
       <c r="D17" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E17" s="5">
         <v>9044</v>
       </c>
       <c r="F17" s="8">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -1038,13 +1046,13 @@
         <v>9050</v>
       </c>
       <c r="D18" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E18" s="5">
         <v>9050</v>
       </c>
       <c r="F18" s="8">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -1058,13 +1066,13 @@
         <v>9053</v>
       </c>
       <c r="D19" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E19" s="5">
         <v>9053</v>
       </c>
       <c r="F19" s="8">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -1078,13 +1086,13 @@
         <v>9055</v>
       </c>
       <c r="D20" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E20" s="5">
         <v>9055</v>
       </c>
       <c r="F20" s="8">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -1098,13 +1106,13 @@
         <v>9063</v>
       </c>
       <c r="D21" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E21" s="5">
         <v>9063</v>
       </c>
       <c r="F21" s="8">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -1138,13 +1146,13 @@
         <v>9028</v>
       </c>
       <c r="D23" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E23" s="5">
         <v>9028</v>
       </c>
       <c r="F23" s="8">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -1158,13 +1166,13 @@
         <v>9044</v>
       </c>
       <c r="D24" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E24" s="5">
         <v>9044</v>
       </c>
       <c r="F24" s="8">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -1178,13 +1186,13 @@
         <v>9050</v>
       </c>
       <c r="D25" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E25" s="5">
         <v>9050</v>
       </c>
       <c r="F25" s="8">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -1198,13 +1206,13 @@
         <v>9053</v>
       </c>
       <c r="D26" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E26" s="5">
         <v>9053</v>
       </c>
       <c r="F26" s="8">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -1218,13 +1226,13 @@
         <v>9055</v>
       </c>
       <c r="D27" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E27" s="5">
         <v>9055</v>
       </c>
       <c r="F27" s="8">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -1238,13 +1246,13 @@
         <v>9063</v>
       </c>
       <c r="D28" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E28" s="5">
         <v>9063</v>
       </c>
       <c r="F28" s="8">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -1278,13 +1286,13 @@
         <v>9028</v>
       </c>
       <c r="D30" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E30" s="5">
         <v>9028</v>
       </c>
       <c r="F30" s="8">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -1298,13 +1306,13 @@
         <v>9044</v>
       </c>
       <c r="D31" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E31" s="5">
         <v>9044</v>
       </c>
       <c r="F31" s="8">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1316,10 +1324,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02110237-7B30-4837-87BA-FD176F5AB329}">
-  <dimension ref="A2:M78"/>
+  <dimension ref="A2:M88"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="L74" sqref="L74"/>
+    <sheetView topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="G84" sqref="G84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1702,15 +1710,15 @@
       </c>
       <c r="J19" s="3">
         <f>SUMIF(WinterPass!C:C,'보상 측정'!H19,WinterPass!D:D)</f>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="K19" s="3">
         <f>SUMIF(WinterPass!E:E,'보상 측정'!H19,WinterPass!F:F)</f>
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="L19" s="3">
         <f>J19+K19</f>
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
@@ -1915,15 +1923,15 @@
       </c>
       <c r="J28" s="3">
         <f ca="1">SUMIF(WinterPass!C:D,'보상 측정'!H28,WinterPass!D:D)</f>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K28" s="3">
         <f ca="1">SUMIF(WinterPass!E:F,'보상 측정'!H28,WinterPass!F:F)</f>
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="L28" s="3">
         <f ca="1">J28+K28</f>
-        <v>60</v>
+        <v>90</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
@@ -1984,15 +1992,15 @@
       </c>
       <c r="J31" s="3">
         <f ca="1">SUMIF(WinterPass!C:D,'보상 측정'!H31,WinterPass!D:D)</f>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="K31" s="3">
         <f ca="1">SUMIF(WinterPass!E:F,'보상 측정'!H31,WinterPass!F:F)</f>
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="L31" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
@@ -2100,15 +2108,15 @@
       </c>
       <c r="J39" s="3">
         <f ca="1">SUMIF(WinterPass!C:D,'보상 측정'!H39,WinterPass!D:D)</f>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K39" s="3">
         <f ca="1">SUMIF(WinterPass!E:F,'보상 측정'!H39,WinterPass!F:F)</f>
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="L39" s="3">
         <f ca="1">J39+K39</f>
-        <v>60</v>
+        <v>90</v>
       </c>
     </row>
     <row r="40" spans="7:12" x14ac:dyDescent="0.3">
@@ -2169,15 +2177,15 @@
       </c>
       <c r="J42" s="3">
         <f ca="1">SUMIF(WinterPass!C:D,'보상 측정'!H42,WinterPass!D:D)</f>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="K42" s="3">
         <f ca="1">SUMIF(WinterPass!E:F,'보상 측정'!H42,WinterPass!F:F)</f>
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="L42" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="43" spans="7:12" x14ac:dyDescent="0.3">
@@ -2285,15 +2293,15 @@
       </c>
       <c r="J50" s="3">
         <f ca="1">SUMIF(WinterPass!C:D,'보상 측정'!H50,WinterPass!D:D)</f>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K50" s="3">
         <f ca="1">SUMIF(WinterPass!E:F,'보상 측정'!H50,WinterPass!F:F)</f>
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="L50" s="3">
         <f ca="1">J50+K50</f>
-        <v>60</v>
+        <v>90</v>
       </c>
     </row>
     <row r="51" spans="7:12" x14ac:dyDescent="0.3">
@@ -2354,15 +2362,15 @@
       </c>
       <c r="J53" s="3">
         <f ca="1">SUMIF(WinterPass!C:D,'보상 측정'!H53,WinterPass!D:D)</f>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="K53" s="3">
         <f ca="1">SUMIF(WinterPass!E:F,'보상 측정'!H53,WinterPass!F:F)</f>
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="L53" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="54" spans="7:12" x14ac:dyDescent="0.3">
@@ -2470,15 +2478,15 @@
       </c>
       <c r="J61" s="3">
         <f ca="1">SUMIF(WinterPass!C:D,'보상 측정'!H61,WinterPass!D:D)</f>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K61" s="3">
         <f ca="1">SUMIF(WinterPass!E:F,'보상 측정'!H61,WinterPass!F:F)</f>
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="L61" s="3">
         <f ca="1">J61+K61</f>
-        <v>60</v>
+        <v>90</v>
       </c>
     </row>
     <row r="62" spans="7:12" x14ac:dyDescent="0.3">
@@ -2516,15 +2524,15 @@
       </c>
       <c r="J63" s="3">
         <f ca="1">SUMIF(WinterPass!C:D,'보상 측정'!H63,WinterPass!D:D)</f>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="K63" s="3">
         <f ca="1">SUMIF(WinterPass!E:F,'보상 측정'!H63,WinterPass!F:F)</f>
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="L63" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="64" spans="7:12" x14ac:dyDescent="0.3">
@@ -2585,15 +2593,15 @@
       </c>
       <c r="J66" s="3">
         <f ca="1">SUMIF(WinterPass!C:D,'보상 측정'!H66,WinterPass!D:D)</f>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="K66" s="3">
         <f ca="1">SUMIF(WinterPass!E:F,'보상 측정'!H66,WinterPass!F:F)</f>
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="L66" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>48</v>
+        <v>72</v>
       </c>
     </row>
     <row r="67" spans="7:12" x14ac:dyDescent="0.3">
@@ -2608,15 +2616,15 @@
       </c>
       <c r="J67" s="3">
         <f ca="1">SUMIF(WinterPass!C:D,'보상 측정'!H67,WinterPass!D:D)</f>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="K67" s="3">
         <f ca="1">SUMIF(WinterPass!E:F,'보상 측정'!H67,WinterPass!F:F)</f>
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="L67" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>48</v>
+        <v>72</v>
       </c>
     </row>
     <row r="68" spans="7:12" x14ac:dyDescent="0.3">
@@ -2667,15 +2675,15 @@
       </c>
       <c r="J72" s="3">
         <f ca="1">SUMIF(WinterPass!C:D,'보상 측정'!H72,WinterPass!D:D)</f>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="K72" s="3">
         <f ca="1">SUMIF(WinterPass!E:F,'보상 측정'!H72,WinterPass!F:F)</f>
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="L72" s="3">
         <f ca="1">J72+K72</f>
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="73" spans="7:12" x14ac:dyDescent="0.3">
@@ -2690,15 +2698,15 @@
       </c>
       <c r="J73" s="3">
         <f ca="1">SUMIF(WinterPass!C:D,'보상 측정'!H73,WinterPass!D:D)</f>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K73" s="3">
         <f ca="1">SUMIF(WinterPass!E:F,'보상 측정'!H73,WinterPass!F:F)</f>
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="L73" s="3">
         <f t="shared" ref="L73:L78" ca="1" si="8">J73+K73</f>
-        <v>60</v>
+        <v>90</v>
       </c>
     </row>
     <row r="74" spans="7:12" x14ac:dyDescent="0.3">
@@ -2713,15 +2721,15 @@
       </c>
       <c r="J74" s="3">
         <f ca="1">SUMIF(WinterPass!C:D,'보상 측정'!H74,WinterPass!D:D)</f>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="K74" s="3">
         <f ca="1">SUMIF(WinterPass!E:F,'보상 측정'!H74,WinterPass!F:F)</f>
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="L74" s="3">
         <f t="shared" ca="1" si="8"/>
-        <v>48</v>
+        <v>72</v>
       </c>
     </row>
     <row r="75" spans="7:12" x14ac:dyDescent="0.3">
@@ -2736,15 +2744,15 @@
       </c>
       <c r="J75" s="3">
         <f ca="1">SUMIF(WinterPass!C:D,'보상 측정'!H75,WinterPass!D:D)</f>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="K75" s="3">
         <f ca="1">SUMIF(WinterPass!E:F,'보상 측정'!H75,WinterPass!F:F)</f>
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="L75" s="3">
         <f t="shared" ca="1" si="8"/>
-        <v>48</v>
+        <v>72</v>
       </c>
     </row>
     <row r="76" spans="7:12" x14ac:dyDescent="0.3">
@@ -2759,15 +2767,15 @@
       </c>
       <c r="J76" s="3">
         <f ca="1">SUMIF(WinterPass!C:D,'보상 측정'!H76,WinterPass!D:D)</f>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="K76" s="3">
         <f ca="1">SUMIF(WinterPass!E:F,'보상 측정'!H76,WinterPass!F:F)</f>
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="L76" s="3">
         <f t="shared" ca="1" si="8"/>
-        <v>48</v>
+        <v>72</v>
       </c>
     </row>
     <row r="77" spans="7:12" x14ac:dyDescent="0.3">
@@ -2782,15 +2790,15 @@
       </c>
       <c r="J77" s="3">
         <f ca="1">SUMIF(WinterPass!C:D,'보상 측정'!H77,WinterPass!D:D)</f>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="K77" s="3">
         <f ca="1">SUMIF(WinterPass!E:F,'보상 측정'!H77,WinterPass!F:F)</f>
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="L77" s="3">
         <f t="shared" ca="1" si="8"/>
-        <v>48</v>
+        <v>72</v>
       </c>
     </row>
     <row r="78" spans="7:12" x14ac:dyDescent="0.3">
@@ -2816,8 +2824,194 @@
         <v>24</v>
       </c>
     </row>
+    <row r="80" spans="7:12" x14ac:dyDescent="0.3">
+      <c r="H80" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="I80" s="10"/>
+      <c r="J80" s="10"/>
+    </row>
+    <row r="81" spans="7:12" x14ac:dyDescent="0.3">
+      <c r="H81" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I81" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="J81" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="K81" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L81" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="82" spans="7:12" x14ac:dyDescent="0.3">
+      <c r="G82" t="s">
+        <v>42</v>
+      </c>
+      <c r="H82" s="5">
+        <v>9028</v>
+      </c>
+      <c r="I82" t="s">
+        <v>15</v>
+      </c>
+      <c r="J82" s="3">
+        <f ca="1">SUMIF(WinterPass!C:D,'보상 측정'!H82,WinterPass!D:D)</f>
+        <v>20</v>
+      </c>
+      <c r="K82" s="3">
+        <f ca="1">SUMIF(WinterPass!E:F,'보상 측정'!H82,WinterPass!F:F)</f>
+        <v>100</v>
+      </c>
+      <c r="L82" s="3">
+        <f ca="1">J82+K82</f>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="83" spans="7:12" x14ac:dyDescent="0.3">
+      <c r="G83" t="s">
+        <v>33</v>
+      </c>
+      <c r="H83" s="5">
+        <v>9044</v>
+      </c>
+      <c r="I83" t="s">
+        <v>29</v>
+      </c>
+      <c r="J83" s="3">
+        <f ca="1">SUMIF(WinterPass!C:D,'보상 측정'!H83,WinterPass!D:D)</f>
+        <v>15</v>
+      </c>
+      <c r="K83" s="3">
+        <f ca="1">SUMIF(WinterPass!E:F,'보상 측정'!H83,WinterPass!F:F)</f>
+        <v>75</v>
+      </c>
+      <c r="L83" s="3">
+        <f t="shared" ref="L83:L88" ca="1" si="9">J83+K83</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="84" spans="7:12" x14ac:dyDescent="0.3">
+      <c r="G84" t="s">
+        <v>33</v>
+      </c>
+      <c r="H84" s="5">
+        <v>9050</v>
+      </c>
+      <c r="I84" t="s">
+        <v>37</v>
+      </c>
+      <c r="J84" s="3">
+        <f ca="1">SUMIF(WinterPass!C:D,'보상 측정'!H84,WinterPass!D:D)</f>
+        <v>12</v>
+      </c>
+      <c r="K84" s="3">
+        <f ca="1">SUMIF(WinterPass!E:F,'보상 측정'!H84,WinterPass!F:F)</f>
+        <v>60</v>
+      </c>
+      <c r="L84" s="3">
+        <f t="shared" ca="1" si="9"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="85" spans="7:12" x14ac:dyDescent="0.3">
+      <c r="G85" t="s">
+        <v>33</v>
+      </c>
+      <c r="H85" s="5">
+        <v>9053</v>
+      </c>
+      <c r="I85" t="s">
+        <v>38</v>
+      </c>
+      <c r="J85" s="3">
+        <f ca="1">SUMIF(WinterPass!C:D,'보상 측정'!H85,WinterPass!D:D)</f>
+        <v>12</v>
+      </c>
+      <c r="K85" s="3">
+        <f ca="1">SUMIF(WinterPass!E:F,'보상 측정'!H85,WinterPass!F:F)</f>
+        <v>60</v>
+      </c>
+      <c r="L85" s="3">
+        <f t="shared" ca="1" si="9"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="86" spans="7:12" x14ac:dyDescent="0.3">
+      <c r="G86" t="s">
+        <v>33</v>
+      </c>
+      <c r="H86" s="5">
+        <v>9055</v>
+      </c>
+      <c r="I86" t="s">
+        <v>39</v>
+      </c>
+      <c r="J86" s="3">
+        <f ca="1">SUMIF(WinterPass!C:D,'보상 측정'!H86,WinterPass!D:D)</f>
+        <v>12</v>
+      </c>
+      <c r="K86" s="3">
+        <f ca="1">SUMIF(WinterPass!E:F,'보상 측정'!H86,WinterPass!F:F)</f>
+        <v>60</v>
+      </c>
+      <c r="L86" s="3">
+        <f t="shared" ca="1" si="9"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="87" spans="7:12" x14ac:dyDescent="0.3">
+      <c r="G87" t="s">
+        <v>33</v>
+      </c>
+      <c r="H87" s="5">
+        <v>9063</v>
+      </c>
+      <c r="I87" t="s">
+        <v>36</v>
+      </c>
+      <c r="J87" s="3">
+        <f ca="1">SUMIF(WinterPass!C:D,'보상 측정'!H87,WinterPass!D:D)</f>
+        <v>12</v>
+      </c>
+      <c r="K87" s="3">
+        <f ca="1">SUMIF(WinterPass!E:F,'보상 측정'!H87,WinterPass!F:F)</f>
+        <v>60</v>
+      </c>
+      <c r="L87" s="3">
+        <f t="shared" ca="1" si="9"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="88" spans="7:12" x14ac:dyDescent="0.3">
+      <c r="G88" t="s">
+        <v>28</v>
+      </c>
+      <c r="H88" s="5">
+        <v>9057</v>
+      </c>
+      <c r="I88" t="s">
+        <v>40</v>
+      </c>
+      <c r="J88" s="3">
+        <f ca="1">SUMIF(WinterPass!C:D,'보상 측정'!H88,WinterPass!D:D)</f>
+        <v>4</v>
+      </c>
+      <c r="K88" s="3">
+        <f ca="1">SUMIF(WinterPass!E:F,'보상 측정'!H88,WinterPass!F:F)</f>
+        <v>20</v>
+      </c>
+      <c r="L88" s="3">
+        <f t="shared" ca="1" si="9"/>
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="10">
+    <mergeCell ref="H80:J80"/>
     <mergeCell ref="H70:J70"/>
     <mergeCell ref="H59:J59"/>
     <mergeCell ref="H48:J48"/>
